--- a/EO-EC-TA-full/F8-full.xlsx
+++ b/EO-EC-TA-full/F8-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO-EC-TA-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B5E398-BF31-40E6-BE2B-782FECB22744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178264DA-2AE8-407A-B260-B070E3B45CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC2E6EBD-EAD7-4BC7-90E0-4EF334A5FCA4}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2993B7C-2AA6-4CF4-A6BA-9450FF11E640}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:L145"/>
+    <sheetView tabSelected="1" zoomScale="32" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,23 +529,23 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>193.8701821900051</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5.8107886839158471</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.3841608957973488</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.9752353809633609</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.4436164258914581</v>
+      <c r="B2" s="4">
+        <v>101.0842426037901</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18.967295444071361</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.3244801652160012</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.9955368376387399</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.412283158696459</v>
       </c>
       <c r="G2">
-        <v>208.48398357657311</v>
+        <v>126.78383820941271</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -554,36 +554,36 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
-        <v>144.5213937786238</v>
-      </c>
-      <c r="C3" s="3">
-        <v>28.903737416746331</v>
-      </c>
-      <c r="D3" s="3">
-        <v>12.355044789004641</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4.8308386385928994</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.7472258708043018</v>
+      <c r="B3" s="4">
+        <v>16.949845222200558</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.0179681036804569</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8.7429099726795307</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.6094415141790801</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.080115278186728</v>
       </c>
       <c r="G3">
-        <v>193.35824049377189</v>
+        <v>35.400280090926358</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -605,23 +605,23 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>21.18240039803355</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10.093316853117059</v>
-      </c>
-      <c r="D4" s="3">
-        <v>37.701412959954418</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5.2001252764226953</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.964963829234212</v>
+      <c r="B4" s="4">
+        <v>17.35289756377615</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10.284037017998561</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9.4399057606212669</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.403852835214725</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.2654624552701268</v>
       </c>
       <c r="G4">
-        <v>77.142219316761924</v>
+        <v>42.746155632880807</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -643,23 +643,23 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>70.821780192218171</v>
-      </c>
-      <c r="C5" s="3">
-        <v>12.506447043992869</v>
-      </c>
-      <c r="D5" s="3">
-        <v>32.641287551575793</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.2413515207667727</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3.0010822657538871</v>
+      <c r="B5" s="4">
+        <v>315.3240559249399</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42.937672070747851</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.2114895281694684</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.9251627106582672</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.3006472398661528</v>
       </c>
       <c r="G5">
-        <v>123.2119485743075</v>
+        <v>368.69902747438152</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -682,22 +682,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>114.94239371200111</v>
+        <v>193.8701821900051</v>
       </c>
       <c r="C6" s="3">
-        <v>9.4022107600170113</v>
+        <v>5.8107886839158471</v>
       </c>
       <c r="D6" s="3">
-        <v>8.6695549915195969</v>
+        <v>3.3841608957973488</v>
       </c>
       <c r="E6" s="3">
-        <v>3.1571785928105851</v>
+        <v>2.9752353809633609</v>
       </c>
       <c r="F6" s="3">
-        <v>3.9019743078879561</v>
+        <v>2.4436164258914581</v>
       </c>
       <c r="G6">
-        <v>140.07331236423619</v>
+        <v>208.48398357657311</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -720,22 +720,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>8.3566421388757863</v>
+        <v>196.04048660893491</v>
       </c>
       <c r="C7" s="3">
-        <v>5.3112248996847651</v>
+        <v>28.454368608860179</v>
       </c>
       <c r="D7" s="3">
-        <v>5.4899192961368737</v>
+        <v>3.930097488226068</v>
       </c>
       <c r="E7" s="3">
-        <v>4.1558889637603578</v>
+        <v>2.6405821942009209</v>
       </c>
       <c r="F7" s="3">
-        <v>4.4720588009141897</v>
+        <v>2.52569624459777</v>
       </c>
       <c r="G7">
-        <v>27.785734099371972</v>
+        <v>233.59123114482</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -744,36 +744,36 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
-        <v>140.61742076522421</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9.0047166937965457</v>
-      </c>
-      <c r="D8" s="3">
-        <v>18.78307953436385</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.934320772412411</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.6059388003828383</v>
+      <c r="B8" s="4">
+        <v>76.590501003727113</v>
+      </c>
+      <c r="C8" s="4">
+        <v>14.805590768794371</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.8639357310845828</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.945717542927258</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.6916643144493602</v>
       </c>
       <c r="G8">
-        <v>177.94547656617979</v>
+        <v>101.89740936098271</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -796,22 +796,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>22.602370739199571</v>
+        <v>144.5213937786238</v>
       </c>
       <c r="C9" s="3">
-        <v>47.264964173203538</v>
+        <v>28.903737416746331</v>
       </c>
       <c r="D9" s="3">
-        <v>4.993575064013406</v>
+        <v>12.355044789004641</v>
       </c>
       <c r="E9" s="3">
-        <v>3.2678865758268061</v>
+        <v>4.8308386385928994</v>
       </c>
       <c r="F9" s="3">
-        <v>4.7942902693213227</v>
+        <v>2.7472258708043018</v>
       </c>
       <c r="G9">
-        <v>82.923086821564652</v>
+        <v>193.35824049377189</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>21.272212757967701</v>
+        <v>105.1805812918001</v>
       </c>
       <c r="C10" s="3">
-        <v>6.0034578019652587</v>
+        <v>14.50405959279864</v>
       </c>
       <c r="D10" s="3">
-        <v>6.6172437483429469</v>
+        <v>2.7525800245116452</v>
       </c>
       <c r="E10" s="3">
-        <v>3.6964297748504529</v>
+        <v>2.8237558752696401</v>
       </c>
       <c r="F10" s="3">
-        <v>5.4063446307512546</v>
+        <v>2.796512443750681</v>
       </c>
       <c r="G10">
-        <v>42.995688713877612</v>
+        <v>128.05748922813069</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>30.069330200394528</v>
+        <v>21.18240039803355</v>
       </c>
       <c r="C11" s="3">
-        <v>20.927083319936511</v>
+        <v>10.093316853117059</v>
       </c>
       <c r="D11" s="3">
-        <v>20.088808182892691</v>
+        <v>37.701412959954418</v>
       </c>
       <c r="E11" s="3">
-        <v>5.2180215446563487</v>
+        <v>5.2001252764226953</v>
       </c>
       <c r="F11" s="3">
-        <v>6.303402105952058</v>
+        <v>2.964963829234212</v>
       </c>
       <c r="G11">
-        <v>82.606645353832135</v>
+        <v>77.142219316761924</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -910,22 +910,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>10.38443431267739</v>
+        <v>70.821780192218171</v>
       </c>
       <c r="C12" s="3">
-        <v>76.691820576942376</v>
+        <v>12.506447043992869</v>
       </c>
       <c r="D12" s="3">
-        <v>13.01680210291053</v>
+        <v>32.641287551575793</v>
       </c>
       <c r="E12" s="3">
-        <v>4.0575067437318957</v>
+        <v>4.2413515207667727</v>
       </c>
       <c r="F12" s="3">
-        <v>6.8569858648327022</v>
+        <v>3.0010822657538871</v>
       </c>
       <c r="G12">
-        <v>111.00754960109489</v>
+        <v>123.2119485743075</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -948,22 +948,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>194.41829330795659</v>
+        <v>149.7613566089781</v>
       </c>
       <c r="C13" s="3">
-        <v>99.761193942821251</v>
+        <v>11.943051967024839</v>
       </c>
       <c r="D13" s="3">
-        <v>13.75431326090019</v>
+        <v>8.8427852966748262</v>
       </c>
       <c r="E13" s="3">
-        <v>5.39117757333835</v>
+        <v>3.516219800021966</v>
       </c>
       <c r="F13" s="3">
-        <v>7.5714846557588942</v>
+        <v>3.0383698382270681</v>
       </c>
       <c r="G13">
-        <v>320.89646274077529</v>
+        <v>177.10178351092679</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -972,13 +972,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -986,22 +986,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>77.421312459036514</v>
+        <v>29.81524263833029</v>
       </c>
       <c r="C14" s="3">
-        <v>16.03528715613087</v>
+        <v>8.1853125646136107</v>
       </c>
       <c r="D14" s="3">
-        <v>45.078552742253727</v>
+        <v>9.6491134344592169</v>
       </c>
       <c r="E14" s="3">
-        <v>8.728570431519298</v>
+        <v>3.8558676547553841</v>
       </c>
       <c r="F14" s="3">
-        <v>7.7054961661169914</v>
+        <v>3.0779581322965059</v>
       </c>
       <c r="G14">
-        <v>154.96921895505741</v>
+        <v>54.583494424455012</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1010,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1024,22 +1024,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>157.71095531921949</v>
+        <v>138.78191686591211</v>
       </c>
       <c r="C15" s="3">
-        <v>11.248805251654581</v>
+        <v>21.496999988138281</v>
       </c>
       <c r="D15" s="3">
-        <v>10.10260099422419</v>
+        <v>4.4391174469215473</v>
       </c>
       <c r="E15" s="3">
-        <v>8.6231656880647787</v>
+        <v>2.192790621022815</v>
       </c>
       <c r="F15" s="3">
-        <v>7.9388516920659864</v>
+        <v>3.1969817134741541</v>
       </c>
       <c r="G15">
-        <v>195.62437894522901</v>
+        <v>170.1078066354689</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1048,36 +1048,36 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3">
-        <v>86.974334611256452</v>
-      </c>
-      <c r="C16" s="3">
-        <v>90.993028396758064</v>
-      </c>
-      <c r="D16" s="3">
-        <v>9.5567813182194961</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5.8529588349722319</v>
-      </c>
-      <c r="F16" s="3">
-        <v>7.9537450308251056</v>
+      <c r="B16" s="4">
+        <v>36.794795567422568</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8.5452236784482416</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.382523042544189</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6.0960774516988971</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.2522316221953691</v>
       </c>
       <c r="G16">
-        <v>201.3308481920314</v>
+        <v>57.07085136230927</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -1099,23 +1099,23 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
-        <v>24.62731540774092</v>
-      </c>
-      <c r="C17" s="3">
-        <v>112.8043812974571</v>
-      </c>
-      <c r="D17" s="3">
-        <v>17.076094310670278</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5.4782161610170599</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8.0515815254689436</v>
+      <c r="B17" s="4">
+        <v>39.981477222587642</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.3016625685719427</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.5290584989347469</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.3379033805653018</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.260084175204458</v>
       </c>
       <c r="G17">
-        <v>168.03758870235441</v>
+        <v>53.410185845864092</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1124,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1138,22 +1138,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>25.239491443979372</v>
+        <v>1454.250695984699</v>
       </c>
       <c r="C18" s="3">
-        <v>51.920823517198492</v>
+        <v>93.672485991924788</v>
       </c>
       <c r="D18" s="3">
-        <v>18.447110632916932</v>
+        <v>9.5217840850247768</v>
       </c>
       <c r="E18" s="3">
-        <v>6.3007772718887454</v>
+        <v>3.7597762084417861</v>
       </c>
       <c r="F18" s="3">
-        <v>9.2028367286137041</v>
+        <v>3.3315651509743889</v>
       </c>
       <c r="G18">
-        <v>111.1110395945972</v>
+        <v>1564.536307421065</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1176,22 +1176,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="3">
-        <v>10.328323976931991</v>
+        <v>31.9397724484657</v>
       </c>
       <c r="C19" s="3">
-        <v>100.66702517373049</v>
+        <v>10.57036106713292</v>
       </c>
       <c r="D19" s="3">
-        <v>24.842034579943931</v>
+        <v>17.485190642834951</v>
       </c>
       <c r="E19" s="3">
-        <v>6.8427969010859728</v>
+        <v>3.8177583005067861</v>
       </c>
       <c r="F19" s="3">
-        <v>10.24323095585266</v>
+        <v>3.440227600699691</v>
       </c>
       <c r="G19">
-        <v>152.92341158754499</v>
+        <v>67.253310059640043</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1200,36 +1200,36 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3">
-        <v>15.490332077505879</v>
-      </c>
-      <c r="C20" s="3">
-        <v>69.316747943850032</v>
-      </c>
-      <c r="D20" s="3">
-        <v>21.793829480283431</v>
-      </c>
-      <c r="E20" s="3">
-        <v>7.1552134057315024</v>
-      </c>
-      <c r="F20" s="3">
-        <v>11.57698922841203</v>
+      <c r="B20" s="4">
+        <v>10.71676283622665</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5.7487517650928952</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5.3028992722647503</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3.7352775707691892</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.4623096303511658</v>
       </c>
       <c r="G20">
-        <v>125.3331121357829</v>
+        <v>28.966001074704661</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -1251,23 +1251,23 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3">
-        <v>79.502145347875881</v>
-      </c>
-      <c r="C21" s="3">
-        <v>26.98044563768979</v>
-      </c>
-      <c r="D21" s="3">
-        <v>15.902631336672981</v>
-      </c>
-      <c r="E21" s="3">
-        <v>12.839465106700979</v>
-      </c>
-      <c r="F21" s="3">
-        <v>13.67469484778203</v>
+      <c r="B21" s="4">
+        <v>137.0632167017296</v>
+      </c>
+      <c r="C21" s="4">
+        <v>35.839037628601353</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5.1596876655562589</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.8191775996352701</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.6875317895145932</v>
       </c>
       <c r="G21">
-        <v>148.8993822767217</v>
+        <v>184.56865138503699</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1276,36 +1276,36 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3">
-        <v>22.979231998380921</v>
-      </c>
-      <c r="C22" s="3">
-        <v>71.788045957511116</v>
-      </c>
-      <c r="D22" s="3">
-        <v>10.36094406303935</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5.6179782624359307</v>
-      </c>
-      <c r="F22" s="3">
-        <v>13.893267912108451</v>
+      <c r="B22" s="4">
+        <v>40.152335549296261</v>
+      </c>
+      <c r="C22" s="4">
+        <v>66.727037501892511</v>
+      </c>
+      <c r="D22" s="4">
+        <v>18.39479307680466</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5.2335369525737363</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.7381674859508598</v>
       </c>
       <c r="G22">
-        <v>124.63946819347581</v>
+        <v>134.24587056651799</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -1328,22 +1328,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>2284.1039794570829</v>
+        <v>114.94239371200111</v>
       </c>
       <c r="C23" s="3">
-        <v>172.55324871853611</v>
+        <v>9.4022107600170113</v>
       </c>
       <c r="D23" s="3">
-        <v>67.380508907237584</v>
+        <v>8.6695549915195969</v>
       </c>
       <c r="E23" s="3">
-        <v>97.786413017463374</v>
+        <v>3.1571785928105851</v>
       </c>
       <c r="F23" s="3">
-        <v>268.86977249356198</v>
+        <v>3.9019743078879561</v>
       </c>
       <c r="G23">
-        <v>2890.6939225938818</v>
+        <v>140.07331236423619</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1365,23 +1365,23 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3">
-        <v>105.1805812918001</v>
-      </c>
-      <c r="C24" s="3">
-        <v>14.50405959279864</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2.7525800245116452</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.8237558752696401</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2.796512443750681</v>
+      <c r="B24" s="4">
+        <v>132.69879042232861</v>
+      </c>
+      <c r="C24" s="4">
+        <v>13.725287902690591</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3.8895867629498579</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.2418838752109429</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.950758365545135</v>
       </c>
       <c r="G24">
-        <v>128.05748922813069</v>
+        <v>157.5063073287252</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1390,36 +1390,36 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="3">
-        <v>19.09768515960074</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4.6400533656614193</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3.2172366715492862</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.8203917853205032</v>
-      </c>
-      <c r="F25" s="3">
-        <v>4.8320451528373942</v>
+      <c r="B25" s="4">
+        <v>8.5610524065075353</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.1747571133661801</v>
+      </c>
+      <c r="D25" s="4">
+        <v>16.875638736175539</v>
+      </c>
+      <c r="E25" s="4">
+        <v>9.6364773735081251</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4.1679113672329411</v>
       </c>
       <c r="G25">
-        <v>34.607412134969351</v>
+        <v>43.415836996790297</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1442,22 +1442,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>24.209633996610101</v>
+        <v>8.3566421388757863</v>
       </c>
       <c r="C26" s="3">
-        <v>5.1107970882218972</v>
+        <v>5.3112248996847651</v>
       </c>
       <c r="D26" s="3">
-        <v>3.5692069503078301</v>
+        <v>5.4899192961368737</v>
       </c>
       <c r="E26" s="3">
-        <v>3.0687700465718488</v>
+        <v>4.1558889637603578</v>
       </c>
       <c r="F26" s="3">
-        <v>5.4972435026265618</v>
+        <v>4.4720588009141897</v>
       </c>
       <c r="G26">
-        <v>41.455651584338227</v>
+        <v>27.785734099371972</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1480,22 +1480,22 @@
         <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>52.644720186175292</v>
+        <v>140.61742076522421</v>
       </c>
       <c r="C27" s="3">
-        <v>13.971866802730039</v>
+        <v>9.0047166937965457</v>
       </c>
       <c r="D27" s="3">
-        <v>3.9948014594888348</v>
+        <v>18.78307953436385</v>
       </c>
       <c r="E27" s="3">
-        <v>5.6934009608867946</v>
+        <v>4.934320772412411</v>
       </c>
       <c r="F27" s="3">
-        <v>7.5482452474866264</v>
+        <v>4.6059388003828383</v>
       </c>
       <c r="G27">
-        <v>83.853034656767576</v>
+        <v>177.94547656617979</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1504,36 +1504,36 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="3">
-        <v>138.78191686591211</v>
-      </c>
-      <c r="C28" s="3">
-        <v>21.496999988138281</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4.4391174469215473</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2.192790621022815</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3.1969817134741541</v>
+      <c r="B28" s="4">
+        <v>69.782500364035386</v>
+      </c>
+      <c r="C28" s="4">
+        <v>34.367511524734297</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3.4807686910452111</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3.981053323340868</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4.6992684097579174</v>
       </c>
       <c r="G28">
-        <v>170.1078066354689</v>
+        <v>116.3111023129137</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1542,36 +1542,36 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>22</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="3">
-        <v>76.319446156433543</v>
-      </c>
-      <c r="C29" s="3">
-        <v>5.4496794112410107</v>
-      </c>
-      <c r="D29" s="3">
-        <v>5.1788621492263083</v>
-      </c>
-      <c r="E29" s="3">
-        <v>23.198340281153261</v>
-      </c>
-      <c r="F29" s="3">
-        <v>64.655072692033215</v>
+      <c r="B29" s="4">
+        <v>143.7792256375719</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43.204183201011148</v>
+      </c>
+      <c r="D29" s="4">
+        <v>16.13387801789505</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10.345746559496471</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4.7413186179903377</v>
       </c>
       <c r="G29">
-        <v>174.80140069008729</v>
+        <v>218.20435203396491</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1580,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1593,23 +1593,23 @@
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="3">
-        <v>44.327226306114433</v>
-      </c>
-      <c r="C30" s="3">
-        <v>57.262616905239213</v>
-      </c>
-      <c r="D30" s="3">
-        <v>5.6162515247560698</v>
-      </c>
-      <c r="E30" s="3">
-        <v>4.0343160530580846</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4.8513654418321028</v>
+      <c r="B30" s="4">
+        <v>7.9674277853396953</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4.6520473302187408</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3.865482515707463</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4.0185080185836757</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4.7447816384681651</v>
       </c>
       <c r="G30">
-        <v>116.0917762309999</v>
+        <v>25.248247288317749</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>13</v>
@@ -1631,23 +1631,23 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="3">
-        <v>132.0684623097012</v>
-      </c>
-      <c r="C31" s="3">
-        <v>9.4336228239358988</v>
-      </c>
-      <c r="D31" s="3">
-        <v>5.6292962375312108</v>
-      </c>
-      <c r="E31" s="3">
-        <v>6.3168924035040739</v>
-      </c>
-      <c r="F31" s="3">
-        <v>9.2947297291835032</v>
+      <c r="B31" s="4">
+        <v>407.3207073862323</v>
+      </c>
+      <c r="C31" s="4">
+        <v>106.1640686322181</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10.81116850528789</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4.1882162476233624</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4.7452092700618564</v>
       </c>
       <c r="G31">
-        <v>162.7430035038559</v>
+        <v>533.22937004142364</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1670,22 +1670,22 @@
         <v>11</v>
       </c>
       <c r="B32" s="3">
-        <v>58.476671560380431</v>
+        <v>22.602370739199571</v>
       </c>
       <c r="C32" s="3">
-        <v>50.635685801250652</v>
+        <v>47.264964173203538</v>
       </c>
       <c r="D32" s="3">
-        <v>6.552468598915743</v>
+        <v>4.993575064013406</v>
       </c>
       <c r="E32" s="3">
-        <v>6.3896382051972056</v>
+        <v>3.2678865758268061</v>
       </c>
       <c r="F32" s="3">
-        <v>15.65055866022217</v>
+        <v>4.7942902693213227</v>
       </c>
       <c r="G32">
-        <v>137.70502282596621</v>
+        <v>82.923086821564652</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1708,22 +1708,22 @@
         <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>198.84432713711601</v>
+        <v>19.09768515960074</v>
       </c>
       <c r="C33" s="3">
-        <v>15.31866870581395</v>
+        <v>4.6400533656614193</v>
       </c>
       <c r="D33" s="3">
-        <v>7.3952451243264292</v>
+        <v>3.2172366715492862</v>
       </c>
       <c r="E33" s="3">
-        <v>4.3498986046700914</v>
+        <v>2.8203917853205032</v>
       </c>
       <c r="F33" s="3">
-        <v>4.9148522280351354</v>
+        <v>4.8320451528373942</v>
       </c>
       <c r="G33">
-        <v>230.8229917999615</v>
+        <v>34.607412134969351</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1746,22 +1746,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>19.10458997079834</v>
+        <v>44.327226306114433</v>
       </c>
       <c r="C34" s="3">
-        <v>86.97175351366252</v>
+        <v>57.262616905239213</v>
       </c>
       <c r="D34" s="3">
-        <v>8.0630312526591279</v>
+        <v>5.6162515247560698</v>
       </c>
       <c r="E34" s="3">
-        <v>3.5089125721859471</v>
+        <v>4.0343160530580846</v>
       </c>
       <c r="F34" s="3">
-        <v>4.9797980920600544</v>
+        <v>4.8513654418321028</v>
       </c>
       <c r="G34">
-        <v>122.62808540136599</v>
+        <v>116.0917762309999</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -1783,23 +1783,23 @@
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="3">
-        <v>149.7613566089781</v>
-      </c>
-      <c r="C35" s="3">
-        <v>11.943051967024839</v>
-      </c>
-      <c r="D35" s="3">
-        <v>8.8427852966748262</v>
-      </c>
-      <c r="E35" s="3">
-        <v>3.516219800021966</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3.0383698382270681</v>
+      <c r="B35" s="4">
+        <v>63.153111760883313</v>
+      </c>
+      <c r="C35" s="4">
+        <v>25.35703763766767</v>
+      </c>
+      <c r="D35" s="4">
+        <v>9.1047326362347398</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4.7876187975045346</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4.8991294959124616</v>
       </c>
       <c r="G35">
-        <v>177.10178351092679</v>
+        <v>107.30163032820271</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1810,8 +1810,8 @@
       <c r="J35">
         <v>14</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
+      <c r="K35" s="4">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>13</v>
@@ -1822,22 +1822,22 @@
         <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>180.66466891346761</v>
+        <v>198.84432713711601</v>
       </c>
       <c r="C36" s="3">
-        <v>88.660136727787474</v>
+        <v>15.31866870581395</v>
       </c>
       <c r="D36" s="3">
-        <v>8.8688254978661121</v>
+        <v>7.3952451243264292</v>
       </c>
       <c r="E36" s="3">
-        <v>9.8226889923470218</v>
+        <v>4.3498986046700914</v>
       </c>
       <c r="F36" s="3">
-        <v>18.853433405349879</v>
+        <v>4.9148522280351354</v>
       </c>
       <c r="G36">
-        <v>306.86975353681822</v>
+        <v>230.8229917999615</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -1860,22 +1860,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>288.60156990445478</v>
+        <v>19.10458997079834</v>
       </c>
       <c r="C37" s="3">
-        <v>60.71656800556471</v>
+        <v>86.97175351366252</v>
       </c>
       <c r="D37" s="3">
-        <v>9.1569871530421931</v>
+        <v>8.0630312526591279</v>
       </c>
       <c r="E37" s="3">
-        <v>5.1071563079490563</v>
+        <v>3.5089125721859471</v>
       </c>
       <c r="F37" s="3">
-        <v>7.9744621346677933</v>
+        <v>4.9797980920600544</v>
       </c>
       <c r="G37">
-        <v>371.55674350567858</v>
+        <v>122.62808540136599</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -1897,23 +1897,23 @@
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="3">
-        <v>29.81524263833029</v>
-      </c>
-      <c r="C38" s="3">
-        <v>8.1853125646136107</v>
-      </c>
-      <c r="D38" s="3">
-        <v>9.6491134344592169</v>
-      </c>
-      <c r="E38" s="3">
-        <v>3.8558676547553841</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3.0779581322965059</v>
+      <c r="B38" s="4">
+        <v>21.480945533370249</v>
+      </c>
+      <c r="C38" s="4">
+        <v>5.8014358111243434</v>
+      </c>
+      <c r="D38" s="4">
+        <v>15.448961784992919</v>
+      </c>
+      <c r="E38" s="4">
+        <v>8.1308833376835548</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5.2928374533903497</v>
       </c>
       <c r="G38">
-        <v>54.583494424455012</v>
+        <v>56.155063920561403</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1922,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>18</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -1936,22 +1936,22 @@
         <v>11</v>
       </c>
       <c r="B39" s="3">
-        <v>31.94975268472804</v>
+        <v>21.272212757967701</v>
       </c>
       <c r="C39" s="3">
-        <v>59.310719726376931</v>
+        <v>6.0034578019652587</v>
       </c>
       <c r="D39" s="3">
-        <v>9.7117203903630926</v>
+        <v>6.6172437483429469</v>
       </c>
       <c r="E39" s="3">
-        <v>6.1502637128564936</v>
+        <v>3.6964297748504529</v>
       </c>
       <c r="F39" s="3">
-        <v>9.9734900852836521</v>
+        <v>5.4063446307512546</v>
       </c>
       <c r="G39">
-        <v>117.0959465996082</v>
+        <v>42.995688713877612</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1960,36 +1960,36 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="3">
-        <v>65.46043449099048</v>
-      </c>
-      <c r="C40" s="3">
-        <v>20.734158398029411</v>
-      </c>
-      <c r="D40" s="3">
-        <v>13.49303666475314</v>
-      </c>
-      <c r="E40" s="3">
-        <v>18.572927090301199</v>
-      </c>
-      <c r="F40" s="3">
-        <v>35.222399060961813</v>
+      <c r="B40" s="4">
+        <v>381.56332216677322</v>
+      </c>
+      <c r="C40" s="4">
+        <v>91.505290725521519</v>
+      </c>
+      <c r="D40" s="4">
+        <v>26.912469492870791</v>
+      </c>
+      <c r="E40" s="4">
+        <v>11.156272006116939</v>
+      </c>
+      <c r="F40" s="4">
+        <v>5.4296299699799819</v>
       </c>
       <c r="G40">
-        <v>153.48295570503601</v>
+        <v>516.56698436126248</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>20</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2012,22 +2012,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>143.79961507722041</v>
+        <v>24.209633996610101</v>
       </c>
       <c r="C41" s="3">
-        <v>71.507155870093868</v>
+        <v>5.1107970882218972</v>
       </c>
       <c r="D41" s="3">
-        <v>15.429884680958191</v>
+        <v>3.5692069503078301</v>
       </c>
       <c r="E41" s="3">
-        <v>9.7117163526209591</v>
+        <v>3.0687700465718488</v>
       </c>
       <c r="F41" s="3">
-        <v>16.202824095253469</v>
+        <v>5.4972435026265618</v>
       </c>
       <c r="G41">
-        <v>256.65119607614679</v>
+        <v>41.455651584338227</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2049,23 +2049,23 @@
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="3">
-        <v>233.86573170279149</v>
-      </c>
-      <c r="C42" s="3">
-        <v>68.19021458932356</v>
-      </c>
-      <c r="D42" s="3">
-        <v>15.65676498149273</v>
-      </c>
-      <c r="E42" s="3">
-        <v>11.97526322811893</v>
-      </c>
-      <c r="F42" s="3">
-        <v>19.744465684278691</v>
+      <c r="B42" s="4">
+        <v>175.724132283806</v>
+      </c>
+      <c r="C42" s="4">
+        <v>54.06656535872861</v>
+      </c>
+      <c r="D42" s="4">
+        <v>8.3416617152365085</v>
+      </c>
+      <c r="E42" s="4">
+        <v>6.4208251678317367</v>
+      </c>
+      <c r="F42" s="4">
+        <v>5.6888551258791882</v>
       </c>
       <c r="G42">
-        <v>349.43244018600552</v>
+        <v>250.242039651482</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2074,36 +2074,36 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>21</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="3">
-        <v>84.224582241512081</v>
-      </c>
-      <c r="C43" s="3">
-        <v>243.8629351197234</v>
-      </c>
-      <c r="D43" s="3">
-        <v>16.207771527827511</v>
-      </c>
-      <c r="E43" s="3">
-        <v>8.5984115619792512</v>
-      </c>
-      <c r="F43" s="3">
-        <v>6.656226771786045</v>
+      <c r="B43" s="4">
+        <v>43.615617207972811</v>
+      </c>
+      <c r="C43" s="4">
+        <v>10.462067793400109</v>
+      </c>
+      <c r="D43" s="4">
+        <v>13.60031826761184</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5.8019563266127498</v>
+      </c>
+      <c r="F43" s="4">
+        <v>5.8982552813665716</v>
       </c>
       <c r="G43">
-        <v>359.54992722282827</v>
+        <v>79.37821487696408</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2112,36 +2112,36 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>9</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="3">
-        <v>31.9397724484657</v>
-      </c>
-      <c r="C44" s="3">
-        <v>10.57036106713292</v>
-      </c>
-      <c r="D44" s="3">
-        <v>17.485190642834951</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3.8177583005067861</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3.440227600699691</v>
+      <c r="B44" s="4">
+        <v>372.36510681806749</v>
+      </c>
+      <c r="C44" s="4">
+        <v>138.3792239144982</v>
+      </c>
+      <c r="D44" s="4">
+        <v>25.776382469275308</v>
+      </c>
+      <c r="E44" s="4">
+        <v>6.6205533411856274</v>
+      </c>
+      <c r="F44" s="4">
+        <v>6.0940819397329449</v>
       </c>
       <c r="G44">
-        <v>67.253310059640043</v>
+        <v>549.23534848275972</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>13</v>
@@ -2163,23 +2163,23 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="3">
-        <v>43.02296045162317</v>
-      </c>
-      <c r="C45" s="3">
-        <v>76.829130251092352</v>
-      </c>
-      <c r="D45" s="3">
-        <v>18.19797072629607</v>
-      </c>
-      <c r="E45" s="3">
-        <v>25.228464870137319</v>
-      </c>
-      <c r="F45" s="3">
-        <v>59.26819212253676</v>
+      <c r="B45" s="4">
+        <v>348.80930506818783</v>
+      </c>
+      <c r="C45" s="4">
+        <v>139.19695523156301</v>
+      </c>
+      <c r="D45" s="4">
+        <v>25.18532890894457</v>
+      </c>
+      <c r="E45" s="4">
+        <v>6.6596311897041218</v>
+      </c>
+      <c r="F45" s="4">
+        <v>6.117400537973432</v>
       </c>
       <c r="G45">
-        <v>222.54671842168571</v>
+        <v>525.96862093637287</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2188,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>23</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2202,22 +2202,22 @@
         <v>11</v>
       </c>
       <c r="B46" s="3">
-        <v>103.754098997852</v>
+        <v>30.069330200394528</v>
       </c>
       <c r="C46" s="3">
-        <v>29.228614166831541</v>
+        <v>20.927083319936511</v>
       </c>
       <c r="D46" s="3">
-        <v>44.311921887810662</v>
+        <v>20.088808182892691</v>
       </c>
       <c r="E46" s="3">
-        <v>39.211174577679451</v>
+        <v>5.2180215446563487</v>
       </c>
       <c r="F46" s="3">
-        <v>67.748908174281468</v>
+        <v>6.303402105952058</v>
       </c>
       <c r="G46">
-        <v>284.25471780445508</v>
+        <v>82.606645353832135</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2226,36 +2226,36 @@
         <v>0</v>
       </c>
       <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
         <v>12</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="3">
-        <v>196.04048660893491</v>
-      </c>
-      <c r="C47" s="3">
-        <v>28.454368608860179</v>
-      </c>
-      <c r="D47" s="3">
-        <v>3.930097488226068</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2.6405821942009209</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2.52569624459777</v>
+      <c r="B47" s="4">
+        <v>48.887318371881157</v>
+      </c>
+      <c r="C47" s="4">
+        <v>5.2062673486177973</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4.4699363594096573</v>
+      </c>
+      <c r="E47" s="4">
+        <v>6.3946741714119266</v>
+      </c>
+      <c r="F47" s="4">
+        <v>6.4971893739124562</v>
       </c>
       <c r="G47">
-        <v>233.59123114482</v>
+        <v>71.455385625232992</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2264,36 +2264,36 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="3">
-        <v>1454.250695984699</v>
-      </c>
-      <c r="C48" s="3">
-        <v>93.672485991924788</v>
-      </c>
-      <c r="D48" s="3">
-        <v>9.5217840850247768</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3.7597762084417861</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3.3315651509743889</v>
+      <c r="B48" s="4">
+        <v>14.1549939027717</v>
+      </c>
+      <c r="C48" s="4">
+        <v>5.6548858024361746</v>
+      </c>
+      <c r="D48" s="4">
+        <v>5.9429722086410992</v>
+      </c>
+      <c r="E48" s="4">
+        <v>7.1760205570095694</v>
+      </c>
+      <c r="F48" s="4">
+        <v>6.637762336568084</v>
       </c>
       <c r="G48">
-        <v>1564.536307421065</v>
+        <v>39.566634807426617</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2302,13 +2302,13 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>13</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2316,22 +2316,22 @@
         <v>11</v>
       </c>
       <c r="B49" s="3">
-        <v>97.370186913156203</v>
+        <v>84.224582241512081</v>
       </c>
       <c r="C49" s="3">
-        <v>112.2196251765213</v>
+        <v>243.8629351197234</v>
       </c>
       <c r="D49" s="3">
-        <v>15.09900638377389</v>
+        <v>16.207771527827511</v>
       </c>
       <c r="E49" s="3">
-        <v>7.2153415453943932</v>
+        <v>8.5984115619792512</v>
       </c>
       <c r="F49" s="3">
-        <v>8.5760843740924848</v>
+        <v>6.656226771786045</v>
       </c>
       <c r="G49">
-        <v>240.48024439293829</v>
+        <v>359.54992722282827</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2340,13 +2340,13 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2354,22 +2354,22 @@
         <v>11</v>
       </c>
       <c r="B50" s="3">
-        <v>33.292099251373372</v>
+        <v>10.38443431267739</v>
       </c>
       <c r="C50" s="3">
-        <v>116.78482478326831</v>
+        <v>76.691820576942376</v>
       </c>
       <c r="D50" s="3">
-        <v>10.187209739106279</v>
+        <v>13.01680210291053</v>
       </c>
       <c r="E50" s="3">
-        <v>5.4343151768878037</v>
+        <v>4.0575067437318957</v>
       </c>
       <c r="F50" s="3">
-        <v>9.5545006227522897</v>
+        <v>6.8569858648327022</v>
       </c>
       <c r="G50">
-        <v>175.25294957338801</v>
+        <v>111.00754960109489</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -2378,36 +2378,36 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="3">
-        <v>33.292099251373372</v>
-      </c>
-      <c r="C51" s="3">
-        <v>116.78482478326831</v>
-      </c>
-      <c r="D51" s="3">
-        <v>10.187209739106279</v>
-      </c>
-      <c r="E51" s="3">
-        <v>5.4343151768878037</v>
-      </c>
-      <c r="F51" s="3">
-        <v>9.5545006227522897</v>
+      <c r="B51" s="4">
+        <v>159.068356225565</v>
+      </c>
+      <c r="C51" s="4">
+        <v>34.967750895580053</v>
+      </c>
+      <c r="D51" s="4">
+        <v>11.779416712059909</v>
+      </c>
+      <c r="E51" s="4">
+        <v>8.2110051639647494</v>
+      </c>
+      <c r="F51" s="4">
+        <v>6.8616427815062746</v>
       </c>
       <c r="G51">
-        <v>175.25294957338801</v>
+        <v>220.88817177867591</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -2416,36 +2416,36 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>2</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="3">
-        <v>33.292099251373372</v>
-      </c>
-      <c r="C52" s="3">
-        <v>116.78482478326831</v>
-      </c>
-      <c r="D52" s="3">
-        <v>10.187209739106279</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5.4343151768878037</v>
-      </c>
-      <c r="F52" s="3">
-        <v>9.5545006227522897</v>
+      <c r="B52" s="4">
+        <v>286.67611929658051</v>
+      </c>
+      <c r="C52" s="4">
+        <v>38.453123007075739</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5.4324036775486926</v>
+      </c>
+      <c r="E52" s="4">
+        <v>5.5652426293633539</v>
+      </c>
+      <c r="F52" s="4">
+        <v>6.9103119328958016</v>
       </c>
       <c r="G52">
-        <v>175.25294957338801</v>
+        <v>343.03720054346411</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -2454,36 +2454,36 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="3">
-        <v>33.292099251373372</v>
-      </c>
-      <c r="C53" s="3">
-        <v>116.78482478326831</v>
-      </c>
-      <c r="D53" s="3">
-        <v>10.187209739106279</v>
-      </c>
-      <c r="E53" s="3">
-        <v>5.4343151768878037</v>
-      </c>
-      <c r="F53" s="3">
-        <v>9.5545006227522897</v>
+      <c r="B53" s="4">
+        <v>16.049274517540081</v>
+      </c>
+      <c r="C53" s="4">
+        <v>5.8543771109599776</v>
+      </c>
+      <c r="D53" s="4">
+        <v>5.363918488946025</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5.3308769730478902</v>
+      </c>
+      <c r="F53" s="4">
+        <v>7.0986482990321882</v>
       </c>
       <c r="G53">
-        <v>175.25294957338801</v>
+        <v>39.697095389526169</v>
       </c>
       <c r="H53">
         <v>0.25</v>
@@ -2492,36 +2492,36 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>4</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="3">
-        <v>33.292099251373372</v>
-      </c>
-      <c r="C54" s="3">
-        <v>116.78482478326831</v>
-      </c>
-      <c r="D54" s="3">
-        <v>10.187209739106279</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5.4343151768878037</v>
-      </c>
-      <c r="F54" s="3">
-        <v>9.5545006227522897</v>
+      <c r="B54" s="4">
+        <v>452.39743309518582</v>
+      </c>
+      <c r="C54" s="4">
+        <v>39.498959440191413</v>
+      </c>
+      <c r="D54" s="4">
+        <v>9.5348639275527844</v>
+      </c>
+      <c r="E54" s="4">
+        <v>8.1687661297202929</v>
+      </c>
+      <c r="F54" s="4">
+        <v>7.3205355090429736</v>
       </c>
       <c r="G54">
-        <v>175.25294957338801</v>
+        <v>516.92055810169336</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>9</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2544,22 +2544,22 @@
         <v>11</v>
       </c>
       <c r="B55" s="3">
-        <v>33.292099251373372</v>
+        <v>52.644720186175292</v>
       </c>
       <c r="C55" s="3">
-        <v>116.78482478326831</v>
+        <v>13.971866802730039</v>
       </c>
       <c r="D55" s="3">
-        <v>10.187209739106279</v>
+        <v>3.9948014594888348</v>
       </c>
       <c r="E55" s="3">
-        <v>5.4343151768878037</v>
+        <v>5.6934009608867946</v>
       </c>
       <c r="F55" s="3">
-        <v>9.5545006227522897</v>
+        <v>7.5482452474866264</v>
       </c>
       <c r="G55">
-        <v>175.25294957338801</v>
+        <v>83.853034656767576</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -2568,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2582,22 +2582,22 @@
         <v>11</v>
       </c>
       <c r="B56" s="3">
-        <v>33.292099251373372</v>
+        <v>194.41829330795659</v>
       </c>
       <c r="C56" s="3">
-        <v>116.78482478326831</v>
+        <v>99.761193942821251</v>
       </c>
       <c r="D56" s="3">
-        <v>10.187209739106279</v>
+        <v>13.75431326090019</v>
       </c>
       <c r="E56" s="3">
-        <v>5.4343151768878037</v>
+        <v>5.39117757333835</v>
       </c>
       <c r="F56" s="3">
-        <v>9.5545006227522897</v>
+        <v>7.5714846557588942</v>
       </c>
       <c r="G56">
-        <v>175.25294957338801</v>
+        <v>320.89646274077529</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2620,22 +2620,22 @@
         <v>11</v>
       </c>
       <c r="B57" s="3">
-        <v>33.292099251373372</v>
+        <v>77.421312459036514</v>
       </c>
       <c r="C57" s="3">
-        <v>116.78482478326831</v>
+        <v>16.03528715613087</v>
       </c>
       <c r="D57" s="3">
-        <v>10.187209739106279</v>
+        <v>45.078552742253727</v>
       </c>
       <c r="E57" s="3">
-        <v>5.4343151768878037</v>
+        <v>8.728570431519298</v>
       </c>
       <c r="F57" s="3">
-        <v>9.5545006227522897</v>
+        <v>7.7054961661169914</v>
       </c>
       <c r="G57">
-        <v>175.25294957338801</v>
+        <v>154.96921895505741</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -2644,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2658,22 +2658,22 @@
         <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>33.292099251373372</v>
+        <v>157.71095531921949</v>
       </c>
       <c r="C58" s="3">
-        <v>116.78482478326831</v>
+        <v>11.248805251654581</v>
       </c>
       <c r="D58" s="3">
-        <v>10.187209739106279</v>
+        <v>10.10260099422419</v>
       </c>
       <c r="E58" s="3">
-        <v>5.4343151768878037</v>
+        <v>8.6231656880647787</v>
       </c>
       <c r="F58" s="3">
-        <v>9.5545006227522897</v>
+        <v>7.9388516920659864</v>
       </c>
       <c r="G58">
-        <v>175.25294957338801</v>
+        <v>195.62437894522901</v>
       </c>
       <c r="H58">
         <v>0.25</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2696,22 +2696,22 @@
         <v>11</v>
       </c>
       <c r="B59" s="3">
-        <v>160.2151300891073</v>
+        <v>86.974334611256452</v>
       </c>
       <c r="C59" s="3">
-        <v>276.13412610140563</v>
+        <v>90.993028396758064</v>
       </c>
       <c r="D59" s="3">
-        <v>19.243527318728649</v>
+        <v>9.5567813182194961</v>
       </c>
       <c r="E59" s="3">
-        <v>12.10218470216498</v>
+        <v>5.8529588349722319</v>
       </c>
       <c r="F59" s="3">
-        <v>10.080760143540131</v>
+        <v>7.9537450308251056</v>
       </c>
       <c r="G59">
-        <v>477.77572835494658</v>
+        <v>201.3308481920314</v>
       </c>
       <c r="H59">
         <v>0.25</v>
@@ -2720,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2734,22 +2734,22 @@
         <v>11</v>
       </c>
       <c r="B60" s="3">
-        <v>32.452048212678307</v>
+        <v>288.60156990445478</v>
       </c>
       <c r="C60" s="3">
-        <v>68.482876607106107</v>
+        <v>60.71656800556471</v>
       </c>
       <c r="D60" s="3">
-        <v>15.395089877015391</v>
+        <v>9.1569871530421931</v>
       </c>
       <c r="E60" s="3">
-        <v>7.3219619750343092</v>
+        <v>5.1071563079490563</v>
       </c>
       <c r="F60" s="3">
-        <v>12.40338646826083</v>
+        <v>7.9744621346677933</v>
       </c>
       <c r="G60">
-        <v>136.0553631400949</v>
+        <v>371.55674350567858</v>
       </c>
       <c r="H60">
         <v>0.25</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2772,22 +2772,22 @@
         <v>11</v>
       </c>
       <c r="B61" s="3">
-        <v>57.689738980107478</v>
+        <v>24.62731540774092</v>
       </c>
       <c r="C61" s="3">
-        <v>121.19912357942491</v>
+        <v>112.8043812974571</v>
       </c>
       <c r="D61" s="3">
-        <v>8.9588634853399611</v>
+        <v>17.076094310670278</v>
       </c>
       <c r="E61" s="3">
-        <v>11.524666583819061</v>
+        <v>5.4782161610170599</v>
       </c>
       <c r="F61" s="3">
-        <v>15.200193450373799</v>
+        <v>8.0515815254689436</v>
       </c>
       <c r="G61">
-        <v>214.57258607906519</v>
+        <v>168.03758870235441</v>
       </c>
       <c r="H61">
         <v>0.25</v>
@@ -2796,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2810,22 +2810,22 @@
         <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>79.67316705498196</v>
+        <v>97.370186913156203</v>
       </c>
       <c r="C62" s="3">
-        <v>115.4022631508663</v>
+        <v>112.2196251765213</v>
       </c>
       <c r="D62" s="3">
-        <v>8.1958046045361428</v>
+        <v>15.09900638377389</v>
       </c>
       <c r="E62" s="3">
-        <v>8.9891551959992171</v>
+        <v>7.2153415453943932</v>
       </c>
       <c r="F62" s="3">
-        <v>16.081807763586109</v>
+        <v>8.5760843740924848</v>
       </c>
       <c r="G62">
-        <v>228.34219776996969</v>
+        <v>240.48024439293829</v>
       </c>
       <c r="H62">
         <v>0.25</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2847,23 +2847,23 @@
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="3">
-        <v>159.40822531329979</v>
-      </c>
-      <c r="C63" s="3">
-        <v>77.154702877833969</v>
-      </c>
-      <c r="D63" s="3">
-        <v>18.221654473439472</v>
-      </c>
-      <c r="E63" s="3">
-        <v>12.47355442863728</v>
-      </c>
-      <c r="F63" s="3">
-        <v>18.513648531535392</v>
+      <c r="B63" s="4">
+        <v>29.37944880111457</v>
+      </c>
+      <c r="C63" s="4">
+        <v>9.7780742876675397</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5.3717826737269778</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6.6708893390648569</v>
+      </c>
+      <c r="F63" s="4">
+        <v>9.1901119562367271</v>
       </c>
       <c r="G63">
-        <v>285.77178562474592</v>
+        <v>60.390307057810681</v>
       </c>
       <c r="H63">
         <v>0.25</v>
@@ -2872,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>19</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
       </c>
       <c r="L63" t="s">
         <v>14</v>
@@ -2886,22 +2886,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="3">
-        <v>62.755461224925348</v>
+        <v>25.239491443979372</v>
       </c>
       <c r="C64" s="3">
-        <v>33.563316937665427</v>
+        <v>51.920823517198492</v>
       </c>
       <c r="D64" s="3">
-        <v>16.0328120658315</v>
+        <v>18.447110632916932</v>
       </c>
       <c r="E64" s="3">
-        <v>15.76197093200631</v>
+        <v>6.3007772718887454</v>
       </c>
       <c r="F64" s="3">
-        <v>25.166954931972061</v>
+        <v>9.2028367286137041</v>
       </c>
       <c r="G64">
-        <v>153.2805160924006</v>
+        <v>111.1110395945972</v>
       </c>
       <c r="H64">
         <v>0.25</v>
@@ -2910,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2924,22 +2924,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="3">
-        <v>42.03770249531825</v>
+        <v>132.0684623097012</v>
       </c>
       <c r="C65" s="3">
-        <v>100.7005666510161</v>
+        <v>9.4336228239358988</v>
       </c>
       <c r="D65" s="3">
-        <v>17.894691803479891</v>
+        <v>5.6292962375312108</v>
       </c>
       <c r="E65" s="3">
-        <v>16.793008883399111</v>
+        <v>6.3168924035040739</v>
       </c>
       <c r="F65" s="3">
-        <v>35.815288929550441</v>
+        <v>9.2947297291835032</v>
       </c>
       <c r="G65">
-        <v>213.24125876276381</v>
+        <v>162.7430035038559</v>
       </c>
       <c r="H65">
         <v>0.25</v>
@@ -2948,36 +2948,36 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="3">
-        <v>20.343298016657979</v>
-      </c>
-      <c r="C66" s="3">
-        <v>92.321174849650873</v>
-      </c>
-      <c r="D66" s="3">
-        <v>10.932923301311449</v>
-      </c>
-      <c r="E66" s="3">
-        <v>17.86516688425387</v>
-      </c>
-      <c r="F66" s="3">
-        <v>52.138818393339371</v>
+      <c r="B66" s="4">
+        <v>144.85666601340279</v>
+      </c>
+      <c r="C66" s="4">
+        <v>39.683677209039978</v>
+      </c>
+      <c r="D66" s="4">
+        <v>17.464195707213641</v>
+      </c>
+      <c r="E66" s="4">
+        <v>15.417820806864979</v>
+      </c>
+      <c r="F66" s="4">
+        <v>9.464870020677191</v>
       </c>
       <c r="G66">
-        <v>193.6013814452136</v>
+        <v>226.88722975719861</v>
       </c>
       <c r="H66">
         <v>0.25</v>
@@ -2986,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>7</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1</v>
       </c>
       <c r="L66" t="s">
         <v>14</v>
@@ -2999,23 +2999,23 @@
       <c r="A67" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="3">
-        <v>1673.2955500138751</v>
-      </c>
-      <c r="C67" s="3">
-        <v>158.4727096999182</v>
-      </c>
-      <c r="D67" s="3">
-        <v>210.7250693911748</v>
-      </c>
-      <c r="E67" s="3">
-        <v>107.1680604997597</v>
-      </c>
-      <c r="F67" s="3">
-        <v>78.294785196541582</v>
+      <c r="B67" s="4">
+        <v>723.68132135803671</v>
+      </c>
+      <c r="C67" s="4">
+        <v>133.83411637174831</v>
+      </c>
+      <c r="D67" s="4">
+        <v>12.89155959926366</v>
+      </c>
+      <c r="E67" s="4">
+        <v>10.78545995805105</v>
+      </c>
+      <c r="F67" s="4">
+        <v>9.4752244419060219</v>
       </c>
       <c r="G67">
-        <v>2227.9561748012688</v>
+        <v>890.66768172900584</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>15</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1</v>
       </c>
       <c r="L67" t="s">
         <v>14</v>
@@ -3038,22 +3038,22 @@
         <v>11</v>
       </c>
       <c r="B68" s="3">
-        <v>5577.5826234258602</v>
+        <v>33.292099251373372</v>
       </c>
       <c r="C68" s="3">
-        <v>1211.8704362071101</v>
+        <v>116.78482478326831</v>
       </c>
       <c r="D68" s="3">
-        <v>533.52389198128208</v>
+        <v>10.187209739106279</v>
       </c>
       <c r="E68" s="3">
-        <v>484.95053807455372</v>
+        <v>5.4343151768878037</v>
       </c>
       <c r="F68" s="3">
-        <v>291.70501162239952</v>
+        <v>9.5545006227522897</v>
       </c>
       <c r="G68">
-        <v>8099.6325013112046</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
@@ -3075,23 +3075,23 @@
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="4">
-        <v>16.949845222200558</v>
-      </c>
-      <c r="C69" s="4">
-        <v>4.0179681036804569</v>
-      </c>
-      <c r="D69" s="4">
-        <v>8.7429099726795307</v>
-      </c>
-      <c r="E69" s="4">
-        <v>3.6094415141790801</v>
-      </c>
-      <c r="F69" s="4">
-        <v>2.080115278186728</v>
+      <c r="B69" s="3">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C69" s="3">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D69" s="3">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E69" s="3">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F69" s="3">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G69">
-        <v>35.400280090926358</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3100,36 +3100,36 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>11</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="4">
-        <v>17.35289756377615</v>
-      </c>
-      <c r="C70" s="4">
-        <v>10.284037017998561</v>
-      </c>
-      <c r="D70" s="4">
-        <v>9.4399057606212669</v>
-      </c>
-      <c r="E70" s="4">
-        <v>3.403852835214725</v>
-      </c>
-      <c r="F70" s="4">
-        <v>2.2654624552701268</v>
+      <c r="B70" s="3">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C70" s="3">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D70" s="3">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E70" s="3">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F70" s="3">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G70">
-        <v>42.746155632880807</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -3138,36 +3138,36 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>26</v>
-      </c>
-      <c r="K70" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="4">
-        <v>36.794795567422568</v>
-      </c>
-      <c r="C71" s="4">
-        <v>8.5452236784482416</v>
-      </c>
-      <c r="D71" s="4">
-        <v>2.382523042544189</v>
-      </c>
-      <c r="E71" s="4">
-        <v>6.0960774516988971</v>
-      </c>
-      <c r="F71" s="4">
-        <v>3.2522316221953691</v>
+      <c r="B71" s="3">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C71" s="3">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D71" s="3">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E71" s="3">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F71" s="3">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G71">
-        <v>57.07085136230927</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -3176,36 +3176,36 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>17</v>
-      </c>
-      <c r="K71" s="4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="4">
-        <v>10.71676283622665</v>
-      </c>
-      <c r="C72" s="4">
-        <v>5.7487517650928952</v>
-      </c>
-      <c r="D72" s="4">
-        <v>5.3028992722647503</v>
-      </c>
-      <c r="E72" s="4">
-        <v>3.7352775707691892</v>
-      </c>
-      <c r="F72" s="4">
-        <v>3.4623096303511658</v>
+      <c r="B72" s="3">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C72" s="3">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D72" s="3">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F72" s="3">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G72">
-        <v>28.966001074704661</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H72">
         <v>0.25</v>
@@ -3216,34 +3216,34 @@
       <c r="J72">
         <v>9</v>
       </c>
-      <c r="K72" s="4">
-        <v>1</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="4">
-        <v>40.152335549296261</v>
-      </c>
-      <c r="C73" s="4">
-        <v>66.727037501892511</v>
-      </c>
-      <c r="D73" s="4">
-        <v>18.39479307680466</v>
-      </c>
-      <c r="E73" s="4">
-        <v>5.2335369525737363</v>
-      </c>
-      <c r="F73" s="4">
-        <v>3.7381674859508598</v>
+      <c r="B73" s="3">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C73" s="3">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D73" s="3">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E73" s="3">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F73" s="3">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G73">
-        <v>134.24587056651799</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H73">
         <v>0.25</v>
@@ -3252,36 +3252,36 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>22</v>
-      </c>
-      <c r="K73" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="4">
-        <v>8.5610524065075353</v>
-      </c>
-      <c r="C74" s="4">
-        <v>4.1747571133661801</v>
-      </c>
-      <c r="D74" s="4">
-        <v>16.875638736175539</v>
-      </c>
-      <c r="E74" s="4">
-        <v>9.6364773735081251</v>
-      </c>
-      <c r="F74" s="4">
-        <v>4.1679113672329411</v>
+      <c r="B74" s="3">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C74" s="3">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D74" s="3">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E74" s="3">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F74" s="3">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G74">
-        <v>43.415836996790297</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H74">
         <v>0.25</v>
@@ -3290,36 +3290,36 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>19</v>
-      </c>
-      <c r="K74" s="4">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="4">
-        <v>21.480945533370249</v>
-      </c>
-      <c r="C75" s="4">
-        <v>5.8014358111243434</v>
-      </c>
-      <c r="D75" s="4">
-        <v>15.448961784992919</v>
-      </c>
-      <c r="E75" s="4">
-        <v>8.1308833376835548</v>
-      </c>
-      <c r="F75" s="4">
-        <v>5.2928374533903497</v>
+      <c r="B75" s="3">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C75" s="3">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D75" s="3">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F75" s="3">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G75">
-        <v>56.155063920561403</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H75">
         <v>0.25</v>
@@ -3328,36 +3328,36 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>10</v>
-      </c>
-      <c r="K75" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="4">
-        <v>381.56332216677322</v>
-      </c>
-      <c r="C76" s="4">
-        <v>91.505290725521519</v>
-      </c>
-      <c r="D76" s="4">
-        <v>26.912469492870791</v>
-      </c>
-      <c r="E76" s="4">
-        <v>11.156272006116939</v>
-      </c>
-      <c r="F76" s="4">
-        <v>5.4296299699799819</v>
+      <c r="B76" s="3">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C76" s="3">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D76" s="3">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F76" s="3">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G76">
-        <v>516.56698436126248</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H76">
         <v>0.25</v>
@@ -3366,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>27</v>
-      </c>
-      <c r="K76" s="4">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3380,22 +3380,22 @@
         <v>11</v>
       </c>
       <c r="B77" s="4">
-        <v>43.615617207972811</v>
+        <v>189.46523686814641</v>
       </c>
       <c r="C77" s="4">
-        <v>10.462067793400109</v>
+        <v>33.438253216169777</v>
       </c>
       <c r="D77" s="4">
-        <v>13.60031826761184</v>
+        <v>10.70457458873766</v>
       </c>
       <c r="E77" s="4">
-        <v>5.8019563266127498</v>
+        <v>8.3070392044103052</v>
       </c>
       <c r="F77" s="4">
-        <v>5.8982552813665716</v>
+        <v>9.7972156603466445</v>
       </c>
       <c r="G77">
-        <v>79.37821487696408</v>
+        <v>251.7123195378108</v>
       </c>
       <c r="H77">
         <v>0.25</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K77" s="4">
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3418,22 +3418,22 @@
         <v>11</v>
       </c>
       <c r="B78" s="4">
-        <v>48.887318371881157</v>
+        <v>222.1780221588339</v>
       </c>
       <c r="C78" s="4">
-        <v>5.2062673486177973</v>
+        <v>14.24737338437092</v>
       </c>
       <c r="D78" s="4">
-        <v>4.4699363594096573</v>
+        <v>33.92142633011904</v>
       </c>
       <c r="E78" s="4">
-        <v>6.3946741714119266</v>
+        <v>10.99662323407175</v>
       </c>
       <c r="F78" s="4">
-        <v>6.4971893739124562</v>
+        <v>9.9303504498000663</v>
       </c>
       <c r="G78">
-        <v>71.455385625232992</v>
+        <v>291.27379555719563</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K78" s="4">
         <v>1</v>
@@ -3455,23 +3455,23 @@
       <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="4">
-        <v>14.1549939027717</v>
-      </c>
-      <c r="C79" s="4">
-        <v>5.6548858024361746</v>
-      </c>
-      <c r="D79" s="4">
-        <v>5.9429722086410992</v>
-      </c>
-      <c r="E79" s="4">
-        <v>7.1760205570095694</v>
-      </c>
-      <c r="F79" s="4">
-        <v>6.637762336568084</v>
+      <c r="B79" s="3">
+        <v>31.94975268472804</v>
+      </c>
+      <c r="C79" s="3">
+        <v>59.310719726376931</v>
+      </c>
+      <c r="D79" s="3">
+        <v>9.7117203903630926</v>
+      </c>
+      <c r="E79" s="3">
+        <v>6.1502637128564936</v>
+      </c>
+      <c r="F79" s="3">
+        <v>9.9734900852836521</v>
       </c>
       <c r="G79">
-        <v>39.566634807426617</v>
+        <v>117.0959465996082</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -3480,36 +3480,36 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>2</v>
-      </c>
-      <c r="K79" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="4">
-        <v>159.068356225565</v>
-      </c>
-      <c r="C80" s="4">
-        <v>34.967750895580053</v>
-      </c>
-      <c r="D80" s="4">
-        <v>11.779416712059909</v>
-      </c>
-      <c r="E80" s="4">
-        <v>8.2110051639647494</v>
-      </c>
-      <c r="F80" s="4">
-        <v>6.8616427815062746</v>
+      <c r="B80" s="3">
+        <v>160.2151300891073</v>
+      </c>
+      <c r="C80" s="3">
+        <v>276.13412610140563</v>
+      </c>
+      <c r="D80" s="3">
+        <v>19.243527318728649</v>
+      </c>
+      <c r="E80" s="3">
+        <v>12.10218470216498</v>
+      </c>
+      <c r="F80" s="3">
+        <v>10.080760143540131</v>
       </c>
       <c r="G80">
-        <v>220.88817177867591</v>
+        <v>477.77572835494658</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>21</v>
-      </c>
-      <c r="K80" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3532,22 +3532,22 @@
         <v>11</v>
       </c>
       <c r="B81" s="4">
-        <v>16.049274517540081</v>
+        <v>261.62856568693951</v>
       </c>
       <c r="C81" s="4">
-        <v>5.8543771109599776</v>
+        <v>44.584497217001463</v>
       </c>
       <c r="D81" s="4">
-        <v>5.363918488946025</v>
+        <v>6.0958200777496057</v>
       </c>
       <c r="E81" s="4">
-        <v>5.3308769730478902</v>
+        <v>11.77266209310533</v>
       </c>
       <c r="F81" s="4">
-        <v>7.0986482990321882</v>
+        <v>10.14820503261334</v>
       </c>
       <c r="G81">
-        <v>39.697095389526169</v>
+        <v>334.22975010740919</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K81" s="4">
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3570,22 +3570,22 @@
         <v>11</v>
       </c>
       <c r="B82" s="4">
-        <v>222.1780221588339</v>
+        <v>13.070531852928079</v>
       </c>
       <c r="C82" s="4">
-        <v>14.24737338437092</v>
+        <v>5.5061744846132017</v>
       </c>
       <c r="D82" s="4">
-        <v>33.92142633011904</v>
+        <v>5.9579746745696518</v>
       </c>
       <c r="E82" s="4">
-        <v>10.99662323407175</v>
+        <v>12.71822688613913</v>
       </c>
       <c r="F82" s="4">
-        <v>9.9303504498000663</v>
+        <v>10.17035243368983</v>
       </c>
       <c r="G82">
-        <v>291.27379555719563</v>
+        <v>47.423260331939879</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K82" s="4">
         <v>1</v>
@@ -3607,23 +3607,23 @@
       <c r="A83" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="4">
-        <v>13.070531852928079</v>
-      </c>
-      <c r="C83" s="4">
-        <v>5.5061744846132017</v>
-      </c>
-      <c r="D83" s="4">
-        <v>5.9579746745696518</v>
-      </c>
-      <c r="E83" s="4">
-        <v>12.71822688613913</v>
-      </c>
-      <c r="F83" s="4">
-        <v>10.17035243368983</v>
+      <c r="B83" s="3">
+        <v>10.328323976931991</v>
+      </c>
+      <c r="C83" s="3">
+        <v>100.66702517373049</v>
+      </c>
+      <c r="D83" s="3">
+        <v>24.842034579943931</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6.8427969010859728</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10.24323095585266</v>
       </c>
       <c r="G83">
-        <v>47.423260331939879</v>
+        <v>152.92341158754499</v>
       </c>
       <c r="H83">
         <v>0.25</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>28</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" t="s">
         <v>12</v>
@@ -3684,22 +3684,22 @@
         <v>11</v>
       </c>
       <c r="B85" s="4">
-        <v>1615.393318485872</v>
+        <v>1823.859777115289</v>
       </c>
       <c r="C85" s="4">
-        <v>275.99533759230491</v>
+        <v>309.0612166280215</v>
       </c>
       <c r="D85" s="4">
-        <v>38.909318377624217</v>
+        <v>68.973555644417473</v>
       </c>
       <c r="E85" s="4">
-        <v>21.971090321440659</v>
+        <v>27.18730070896499</v>
       </c>
       <c r="F85" s="4">
-        <v>13.096629420553491</v>
+        <v>11.52651357751764</v>
       </c>
       <c r="G85">
-        <v>1965.3656941977961</v>
+        <v>2240.6083636742101</v>
       </c>
       <c r="H85">
         <v>0.25</v>
@@ -3708,36 +3708,36 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K85" s="4">
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="4">
-        <v>405.38111292255462</v>
-      </c>
-      <c r="C86" s="4">
-        <v>83.073425825896038</v>
-      </c>
-      <c r="D86" s="4">
-        <v>38.424802282707972</v>
-      </c>
-      <c r="E86" s="4">
-        <v>17.09188284268901</v>
-      </c>
-      <c r="F86" s="4">
-        <v>18.202522662454829</v>
+      <c r="B86" s="3">
+        <v>15.490332077505879</v>
+      </c>
+      <c r="C86" s="3">
+        <v>69.316747943850032</v>
+      </c>
+      <c r="D86" s="3">
+        <v>21.793829480283431</v>
+      </c>
+      <c r="E86" s="3">
+        <v>7.1552134057315024</v>
+      </c>
+      <c r="F86" s="3">
+        <v>11.57698922841203</v>
       </c>
       <c r="G86">
-        <v>562.17374653630236</v>
+        <v>125.3331121357829</v>
       </c>
       <c r="H86">
         <v>0.25</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>20</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
       </c>
       <c r="L86" t="s">
         <v>12</v>
@@ -3759,23 +3759,23 @@
       <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="4">
-        <v>31.499601528849649</v>
-      </c>
-      <c r="C87" s="4">
-        <v>39.984257990954873</v>
-      </c>
-      <c r="D87" s="4">
-        <v>43.005184270254858</v>
-      </c>
-      <c r="E87" s="4">
-        <v>44.26267979732939</v>
-      </c>
-      <c r="F87" s="4">
-        <v>22.980374369123268</v>
+      <c r="B87" s="3">
+        <v>32.452048212678307</v>
+      </c>
+      <c r="C87" s="3">
+        <v>68.482876607106107</v>
+      </c>
+      <c r="D87" s="3">
+        <v>15.395089877015391</v>
+      </c>
+      <c r="E87" s="3">
+        <v>7.3219619750343092</v>
+      </c>
+      <c r="F87" s="3">
+        <v>12.40338646826083</v>
       </c>
       <c r="G87">
-        <v>181.73209795651201</v>
+        <v>136.0553631400949</v>
       </c>
       <c r="H87">
         <v>0.25</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="J87">
+        <v>6</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
         <v>14</v>
-      </c>
-      <c r="K87" s="4">
-        <v>1</v>
-      </c>
-      <c r="L87" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3798,22 +3798,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="4">
-        <v>11.46470411338003</v>
+        <v>1615.393318485872</v>
       </c>
       <c r="C88" s="4">
-        <v>16.49362254752705</v>
+        <v>275.99533759230491</v>
       </c>
       <c r="D88" s="4">
-        <v>13.50853013787725</v>
+        <v>38.909318377624217</v>
       </c>
       <c r="E88" s="4">
-        <v>43.560177282073823</v>
+        <v>21.971090321440659</v>
       </c>
       <c r="F88" s="4">
-        <v>80.084188383821271</v>
+        <v>13.096629420553491</v>
       </c>
       <c r="G88">
-        <v>165.1112224646794</v>
+        <v>1965.3656941977961</v>
       </c>
       <c r="H88">
         <v>0.25</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K88" s="4">
         <v>1</v>
@@ -3836,22 +3836,22 @@
         <v>11</v>
       </c>
       <c r="B89" s="4">
-        <v>23.133560794585701</v>
+        <v>36.186623163463622</v>
       </c>
       <c r="C89" s="4">
-        <v>17.24101021009276</v>
+        <v>12.936831093124461</v>
       </c>
       <c r="D89" s="4">
-        <v>59.575924815620368</v>
+        <v>18.415868224501001</v>
       </c>
       <c r="E89" s="4">
-        <v>54.121097010836031</v>
+        <v>14.29092378934032</v>
       </c>
       <c r="F89" s="4">
-        <v>93.592109599676363</v>
+        <v>13.248453384844909</v>
       </c>
       <c r="G89">
-        <v>247.66370243081121</v>
+        <v>95.078699655274306</v>
       </c>
       <c r="H89">
         <v>0.25</v>
@@ -3860,36 +3860,36 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K89" s="4">
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="4">
-        <v>64.695737509823459</v>
-      </c>
-      <c r="C90" s="4">
-        <v>61.147775475685613</v>
-      </c>
-      <c r="D90" s="4">
-        <v>72.777557376216834</v>
-      </c>
-      <c r="E90" s="4">
-        <v>94.122507522784133</v>
-      </c>
-      <c r="F90" s="4">
-        <v>102.0152852935597</v>
+      <c r="B90" s="3">
+        <v>79.502145347875881</v>
+      </c>
+      <c r="C90" s="3">
+        <v>26.98044563768979</v>
+      </c>
+      <c r="D90" s="3">
+        <v>15.902631336672981</v>
+      </c>
+      <c r="E90" s="3">
+        <v>12.839465106700979</v>
+      </c>
+      <c r="F90" s="3">
+        <v>13.67469484778203</v>
       </c>
       <c r="G90">
-        <v>394.75886317806959</v>
+        <v>148.8993822767217</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>7</v>
-      </c>
-      <c r="K90" s="4">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
       </c>
       <c r="L90" t="s">
         <v>12</v>
@@ -3911,23 +3911,23 @@
       <c r="A91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="4">
-        <v>414.21787506223689</v>
-      </c>
-      <c r="C91" s="4">
-        <v>247.47391774320761</v>
-      </c>
-      <c r="D91" s="4">
-        <v>242.210043124881</v>
-      </c>
-      <c r="E91" s="4">
-        <v>130.51865564184831</v>
-      </c>
-      <c r="F91" s="4">
-        <v>147.9080203175366</v>
+      <c r="B91" s="3">
+        <v>22.979231998380921</v>
+      </c>
+      <c r="C91" s="3">
+        <v>71.788045957511116</v>
+      </c>
+      <c r="D91" s="3">
+        <v>10.36094406303935</v>
+      </c>
+      <c r="E91" s="3">
+        <v>5.6179782624359307</v>
+      </c>
+      <c r="F91" s="3">
+        <v>13.893267912108451</v>
       </c>
       <c r="G91">
-        <v>1182.3285118897099</v>
+        <v>124.63946819347581</v>
       </c>
       <c r="H91">
         <v>0.25</v>
@@ -3936,10 +3936,10 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>13</v>
-      </c>
-      <c r="K91" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" t="s">
         <v>12</v>
@@ -3950,22 +3950,22 @@
         <v>11</v>
       </c>
       <c r="B92" s="4">
-        <v>532.48063107749351</v>
+        <v>321.41196380619368</v>
       </c>
       <c r="C92" s="4">
-        <v>881.25161046858796</v>
+        <v>31.09694118317822</v>
       </c>
       <c r="D92" s="4">
-        <v>913.52335174480822</v>
+        <v>12.782748076841219</v>
       </c>
       <c r="E92" s="4">
-        <v>1010.449607160935</v>
+        <v>12.31176024791702</v>
       </c>
       <c r="F92" s="4">
-        <v>531.44555290162862</v>
+        <v>14.24512050431664</v>
       </c>
       <c r="G92">
-        <v>3869.1507533534532</v>
+        <v>391.84853381844692</v>
       </c>
       <c r="H92">
         <v>0.25</v>
@@ -3974,36 +3974,36 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K92" s="4">
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="4">
-        <v>39.981477222587642</v>
-      </c>
-      <c r="C93" s="4">
-        <v>5.3016625685719427</v>
-      </c>
-      <c r="D93" s="4">
-        <v>2.5290584989347469</v>
-      </c>
-      <c r="E93" s="4">
-        <v>2.3379033805653018</v>
-      </c>
-      <c r="F93" s="4">
-        <v>3.260084175204458</v>
+      <c r="B93" s="3">
+        <v>57.689738980107478</v>
+      </c>
+      <c r="C93" s="3">
+        <v>121.19912357942491</v>
+      </c>
+      <c r="D93" s="3">
+        <v>8.9588634853399611</v>
+      </c>
+      <c r="E93" s="3">
+        <v>11.524666583819061</v>
+      </c>
+      <c r="F93" s="3">
+        <v>15.200193450373799</v>
       </c>
       <c r="G93">
-        <v>53.410185845864092</v>
+        <v>214.57258607906519</v>
       </c>
       <c r="H93">
         <v>0.25</v>
@@ -4012,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>13</v>
-      </c>
-      <c r="K93" s="4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -4026,22 +4026,22 @@
         <v>11</v>
       </c>
       <c r="B94" s="4">
-        <v>101.0842426037901</v>
+        <v>34.310157499772927</v>
       </c>
       <c r="C94" s="4">
-        <v>18.967295444071361</v>
+        <v>7.8537264850598882</v>
       </c>
       <c r="D94" s="4">
-        <v>3.3244801652160012</v>
+        <v>7.4366716624603599</v>
       </c>
       <c r="E94" s="4">
-        <v>1.9955368376387399</v>
+        <v>15.78426664076783</v>
       </c>
       <c r="F94" s="4">
-        <v>1.412283158696459</v>
+        <v>15.514275159202169</v>
       </c>
       <c r="G94">
-        <v>126.78383820941271</v>
+        <v>80.899097447263159</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K94" s="4">
         <v>1</v>
@@ -4063,23 +4063,23 @@
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="4">
-        <v>7.9674277853396953</v>
-      </c>
-      <c r="C95" s="4">
-        <v>4.6520473302187408</v>
-      </c>
-      <c r="D95" s="4">
-        <v>3.865482515707463</v>
-      </c>
-      <c r="E95" s="4">
-        <v>4.0185080185836757</v>
-      </c>
-      <c r="F95" s="4">
-        <v>4.7447816384681651</v>
+      <c r="B95" s="3">
+        <v>58.476671560380431</v>
+      </c>
+      <c r="C95" s="3">
+        <v>50.635685801250652</v>
+      </c>
+      <c r="D95" s="3">
+        <v>6.552468598915743</v>
+      </c>
+      <c r="E95" s="3">
+        <v>6.3896382051972056</v>
+      </c>
+      <c r="F95" s="3">
+        <v>15.65055866022217</v>
       </c>
       <c r="G95">
-        <v>25.248247288317749</v>
+        <v>137.70502282596621</v>
       </c>
       <c r="H95">
         <v>0.25</v>
@@ -4088,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>11</v>
-      </c>
-      <c r="K95" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0</v>
       </c>
       <c r="L95" t="s">
         <v>13</v>
@@ -4101,23 +4101,23 @@
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="4">
-        <v>137.0632167017296</v>
-      </c>
-      <c r="C96" s="4">
-        <v>35.839037628601353</v>
-      </c>
-      <c r="D96" s="4">
-        <v>5.1596876655562589</v>
-      </c>
-      <c r="E96" s="4">
-        <v>2.8191775996352701</v>
-      </c>
-      <c r="F96" s="4">
-        <v>3.6875317895145932</v>
+      <c r="B96" s="3">
+        <v>79.67316705498196</v>
+      </c>
+      <c r="C96" s="3">
+        <v>115.4022631508663</v>
+      </c>
+      <c r="D96" s="3">
+        <v>8.1958046045361428</v>
+      </c>
+      <c r="E96" s="3">
+        <v>8.9891551959992171</v>
+      </c>
+      <c r="F96" s="3">
+        <v>16.081807763586109</v>
       </c>
       <c r="G96">
-        <v>184.56865138503699</v>
+        <v>228.34219776996969</v>
       </c>
       <c r="H96">
         <v>0.25</v>
@@ -4126,36 +4126,36 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>10</v>
-      </c>
-      <c r="K96" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="4">
-        <v>286.67611929658051</v>
-      </c>
-      <c r="C97" s="4">
-        <v>38.453123007075739</v>
-      </c>
-      <c r="D97" s="4">
-        <v>5.4324036775486926</v>
-      </c>
-      <c r="E97" s="4">
-        <v>5.5652426293633539</v>
-      </c>
-      <c r="F97" s="4">
-        <v>6.9103119328958016</v>
+      <c r="B97" s="3">
+        <v>143.79961507722041</v>
+      </c>
+      <c r="C97" s="3">
+        <v>71.507155870093868</v>
+      </c>
+      <c r="D97" s="3">
+        <v>15.429884680958191</v>
+      </c>
+      <c r="E97" s="3">
+        <v>9.7117163526209591</v>
+      </c>
+      <c r="F97" s="3">
+        <v>16.202824095253469</v>
       </c>
       <c r="G97">
-        <v>343.03720054346411</v>
+        <v>256.65119607614679</v>
       </c>
       <c r="H97">
         <v>0.25</v>
@@ -4164,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>2</v>
-      </c>
-      <c r="K97" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0</v>
       </c>
       <c r="L97" t="s">
         <v>13</v>
@@ -4178,22 +4178,22 @@
         <v>11</v>
       </c>
       <c r="B98" s="4">
-        <v>261.62856568693951</v>
+        <v>100.18501442996219</v>
       </c>
       <c r="C98" s="4">
-        <v>44.584497217001463</v>
+        <v>21.91386177866309</v>
       </c>
       <c r="D98" s="4">
-        <v>6.0958200777496057</v>
+        <v>24.55708491987734</v>
       </c>
       <c r="E98" s="4">
-        <v>11.77266209310533</v>
+        <v>16.761505289702988</v>
       </c>
       <c r="F98" s="4">
-        <v>10.14820503261334</v>
+        <v>16.212992576162051</v>
       </c>
       <c r="G98">
-        <v>334.22975010740919</v>
+        <v>179.63045899436759</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4202,13 +4202,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K98" s="4">
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4216,22 +4216,22 @@
         <v>11</v>
       </c>
       <c r="B99" s="4">
-        <v>34.310157499772927</v>
+        <v>405.38111292255462</v>
       </c>
       <c r="C99" s="4">
-        <v>7.8537264850598882</v>
+        <v>83.073425825896038</v>
       </c>
       <c r="D99" s="4">
-        <v>7.4366716624603599</v>
+        <v>38.424802282707972</v>
       </c>
       <c r="E99" s="4">
-        <v>15.78426664076783</v>
+        <v>17.09188284268901</v>
       </c>
       <c r="F99" s="4">
-        <v>15.514275159202169</v>
+        <v>18.202522662454829</v>
       </c>
       <c r="G99">
-        <v>80.899097447263159</v>
+        <v>562.17374653630236</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -4240,13 +4240,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K99" s="4">
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4254,22 +4254,22 @@
         <v>11</v>
       </c>
       <c r="B100" s="4">
-        <v>63.153111760883313</v>
+        <v>181.30434253126819</v>
       </c>
       <c r="C100" s="4">
-        <v>25.35703763766767</v>
+        <v>42.876853177581147</v>
       </c>
       <c r="D100" s="4">
-        <v>9.1047326362347398</v>
+        <v>12.625095049215449</v>
       </c>
       <c r="E100" s="4">
-        <v>4.7876187975045346</v>
+        <v>15.593425675869961</v>
       </c>
       <c r="F100" s="4">
-        <v>4.8991294959124616</v>
+        <v>18.433495190328308</v>
       </c>
       <c r="G100">
-        <v>107.30163032820271</v>
+        <v>270.83321162426307</v>
       </c>
       <c r="H100">
         <v>0.25</v>
@@ -4278,36 +4278,36 @@
         <v>0</v>
       </c>
       <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
         <v>14</v>
-      </c>
-      <c r="K100" s="4">
-        <v>1</v>
-      </c>
-      <c r="L100" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="4">
-        <v>45.442674676316862</v>
-      </c>
-      <c r="C101" s="4">
-        <v>14.34484347528381</v>
-      </c>
-      <c r="D101" s="4">
-        <v>9.1659236035522174</v>
-      </c>
-      <c r="E101" s="4">
-        <v>21.012995156440351</v>
-      </c>
-      <c r="F101" s="4">
-        <v>28.842517272698409</v>
+      <c r="B101" s="3">
+        <v>159.40822531329979</v>
+      </c>
+      <c r="C101" s="3">
+        <v>77.154702877833969</v>
+      </c>
+      <c r="D101" s="3">
+        <v>18.221654473439472</v>
+      </c>
+      <c r="E101" s="3">
+        <v>12.47355442863728</v>
+      </c>
+      <c r="F101" s="3">
+        <v>18.513648531535392</v>
       </c>
       <c r="G101">
-        <v>118.80895418429159</v>
+        <v>285.77178562474592</v>
       </c>
       <c r="H101">
         <v>0.25</v>
@@ -4316,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>21</v>
-      </c>
-      <c r="K101" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4330,22 +4330,22 @@
         <v>11</v>
       </c>
       <c r="B102" s="4">
-        <v>452.39743309518582</v>
+        <v>211.9244719022669</v>
       </c>
       <c r="C102" s="4">
-        <v>39.498959440191413</v>
+        <v>39.797882852708319</v>
       </c>
       <c r="D102" s="4">
-        <v>9.5348639275527844</v>
+        <v>10.77155651056437</v>
       </c>
       <c r="E102" s="4">
-        <v>8.1687661297202929</v>
+        <v>16.49070606877887</v>
       </c>
       <c r="F102" s="4">
-        <v>7.3205355090429736</v>
+        <v>18.712014045663452</v>
       </c>
       <c r="G102">
-        <v>516.92055810169336</v>
+        <v>297.69663137998191</v>
       </c>
       <c r="H102">
         <v>0.25</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K102" s="4">
         <v>1</v>
@@ -4367,23 +4367,23 @@
       <c r="A103" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="4">
-        <v>189.46523686814641</v>
-      </c>
-      <c r="C103" s="4">
-        <v>33.438253216169777</v>
-      </c>
-      <c r="D103" s="4">
-        <v>10.70457458873766</v>
-      </c>
-      <c r="E103" s="4">
-        <v>8.3070392044103052</v>
-      </c>
-      <c r="F103" s="4">
-        <v>9.7972156603466445</v>
+      <c r="B103" s="3">
+        <v>180.66466891346761</v>
+      </c>
+      <c r="C103" s="3">
+        <v>88.660136727787474</v>
+      </c>
+      <c r="D103" s="3">
+        <v>8.8688254978661121</v>
+      </c>
+      <c r="E103" s="3">
+        <v>9.8226889923470218</v>
+      </c>
+      <c r="F103" s="3">
+        <v>18.853433405349879</v>
       </c>
       <c r="G103">
-        <v>251.7123195378108</v>
+        <v>306.86975353681822</v>
       </c>
       <c r="H103">
         <v>0.25</v>
@@ -4392,10 +4392,10 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>12</v>
-      </c>
-      <c r="K103" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K103" s="3">
+        <v>0</v>
       </c>
       <c r="L103" t="s">
         <v>13</v>
@@ -4406,22 +4406,22 @@
         <v>11</v>
       </c>
       <c r="B104" s="4">
-        <v>211.9244719022669</v>
+        <v>73.281065177488486</v>
       </c>
       <c r="C104" s="4">
-        <v>39.797882852708319</v>
+        <v>19.96893336836737</v>
       </c>
       <c r="D104" s="4">
-        <v>10.77155651056437</v>
+        <v>19.257865109914821</v>
       </c>
       <c r="E104" s="4">
-        <v>16.49070606877887</v>
+        <v>16.23815479217604</v>
       </c>
       <c r="F104" s="4">
-        <v>18.712014045663452</v>
+        <v>19.05241557798875</v>
       </c>
       <c r="G104">
-        <v>297.69663137998191</v>
+        <v>147.79843402593539</v>
       </c>
       <c r="H104">
         <v>0.25</v>
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K104" s="4">
         <v>1</v>
@@ -4443,23 +4443,23 @@
       <c r="A105" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="4">
-        <v>24.312675710359361</v>
-      </c>
-      <c r="C105" s="4">
-        <v>11.744229393336109</v>
-      </c>
-      <c r="D105" s="4">
-        <v>12.288956459212621</v>
-      </c>
-      <c r="E105" s="4">
-        <v>19.625354170930599</v>
-      </c>
-      <c r="F105" s="4">
-        <v>23.87819307245142</v>
+      <c r="B105" s="3">
+        <v>233.86573170279149</v>
+      </c>
+      <c r="C105" s="3">
+        <v>68.19021458932356</v>
+      </c>
+      <c r="D105" s="3">
+        <v>15.65676498149273</v>
+      </c>
+      <c r="E105" s="3">
+        <v>11.97526322811893</v>
+      </c>
+      <c r="F105" s="3">
+        <v>19.744465684278691</v>
       </c>
       <c r="G105">
-        <v>91.849408806290086</v>
+        <v>349.43244018600552</v>
       </c>
       <c r="H105">
         <v>0.25</v>
@@ -4468,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="K105" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0</v>
       </c>
       <c r="L105" t="s">
         <v>13</v>
@@ -4482,22 +4482,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>321.41196380619368</v>
+        <v>54.812605752362742</v>
       </c>
       <c r="C106" s="4">
-        <v>31.09694118317822</v>
+        <v>15.25256908915734</v>
       </c>
       <c r="D106" s="4">
-        <v>12.782748076841219</v>
+        <v>6.5564807692158542</v>
       </c>
       <c r="E106" s="4">
-        <v>12.31176024791702</v>
+        <v>13.079958998998061</v>
       </c>
       <c r="F106" s="4">
-        <v>14.24512050431664</v>
+        <v>21.19556170308109</v>
       </c>
       <c r="G106">
-        <v>391.84853381844692</v>
+        <v>110.89717631281511</v>
       </c>
       <c r="H106">
         <v>0.25</v>
@@ -4506,13 +4506,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K106" s="4">
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4520,22 +4520,22 @@
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>143.7792256375719</v>
+        <v>257.392058933687</v>
       </c>
       <c r="C107" s="4">
-        <v>43.204183201011148</v>
+        <v>83.530444840553287</v>
       </c>
       <c r="D107" s="4">
-        <v>16.13387801789505</v>
+        <v>24.743163431635121</v>
       </c>
       <c r="E107" s="4">
-        <v>10.345746559496471</v>
+        <v>18.984131362277932</v>
       </c>
       <c r="F107" s="4">
-        <v>4.7413186179903377</v>
+        <v>22.589593937040689</v>
       </c>
       <c r="G107">
-        <v>218.20435203396491</v>
+        <v>407.23939250519408</v>
       </c>
       <c r="H107">
         <v>0.25</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K107" s="4">
         <v>1</v>
@@ -4558,22 +4558,22 @@
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>150.45949121348059</v>
+        <v>31.499601528849649</v>
       </c>
       <c r="C108" s="4">
-        <v>41.7201782627453</v>
+        <v>39.984257990954873</v>
       </c>
       <c r="D108" s="4">
-        <v>16.687240023196679</v>
+        <v>43.005184270254858</v>
       </c>
       <c r="E108" s="4">
-        <v>36.896249416253923</v>
+        <v>44.26267979732939</v>
       </c>
       <c r="F108" s="4">
-        <v>53.774373265095058</v>
+        <v>22.980374369123268</v>
       </c>
       <c r="G108">
-        <v>299.53753218077162</v>
+        <v>181.73209795651201</v>
       </c>
       <c r="H108">
         <v>0.25</v>
@@ -4582,13 +4582,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K108" s="4">
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4596,22 +4596,22 @@
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>36.186623163463622</v>
+        <v>24.312675710359361</v>
       </c>
       <c r="C109" s="4">
-        <v>12.936831093124461</v>
+        <v>11.744229393336109</v>
       </c>
       <c r="D109" s="4">
-        <v>18.415868224501001</v>
+        <v>12.288956459212621</v>
       </c>
       <c r="E109" s="4">
-        <v>14.29092378934032</v>
+        <v>19.625354170930599</v>
       </c>
       <c r="F109" s="4">
-        <v>13.248453384844909</v>
+        <v>23.87819307245142</v>
       </c>
       <c r="G109">
-        <v>95.078699655274306</v>
+        <v>91.849408806290086</v>
       </c>
       <c r="H109">
         <v>0.25</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K109" s="4">
         <v>1</v>
@@ -4633,23 +4633,23 @@
       <c r="A110" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="4">
-        <v>73.281065177488486</v>
-      </c>
-      <c r="C110" s="4">
-        <v>19.96893336836737</v>
-      </c>
-      <c r="D110" s="4">
-        <v>19.257865109914821</v>
-      </c>
-      <c r="E110" s="4">
-        <v>16.23815479217604</v>
-      </c>
-      <c r="F110" s="4">
-        <v>19.05241557798875</v>
+      <c r="B110" s="3">
+        <v>62.755461224925348</v>
+      </c>
+      <c r="C110" s="3">
+        <v>33.563316937665427</v>
+      </c>
+      <c r="D110" s="3">
+        <v>16.0328120658315</v>
+      </c>
+      <c r="E110" s="3">
+        <v>15.76197093200631</v>
+      </c>
+      <c r="F110" s="3">
+        <v>25.166954931972061</v>
       </c>
       <c r="G110">
-        <v>147.79843402593539</v>
+        <v>153.2805160924006</v>
       </c>
       <c r="H110">
         <v>0.25</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>25</v>
-      </c>
-      <c r="K110" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4710,22 +4710,22 @@
         <v>11</v>
       </c>
       <c r="B112" s="4">
-        <v>257.392058933687</v>
+        <v>971.05800576877959</v>
       </c>
       <c r="C112" s="4">
-        <v>83.530444840553287</v>
+        <v>159.28447870794031</v>
       </c>
       <c r="D112" s="4">
-        <v>24.743163431635121</v>
+        <v>23.172279016337551</v>
       </c>
       <c r="E112" s="4">
-        <v>18.984131362277932</v>
+        <v>18.88557912570041</v>
       </c>
       <c r="F112" s="4">
-        <v>22.589593937040689</v>
+        <v>26.87972925036604</v>
       </c>
       <c r="G112">
-        <v>407.23939250519408</v>
+        <v>1199.280071869124</v>
       </c>
       <c r="H112">
         <v>0.25</v>
@@ -4734,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K112" s="4">
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -4748,22 +4748,22 @@
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>372.36510681806749</v>
+        <v>45.442674676316862</v>
       </c>
       <c r="C113" s="4">
-        <v>138.3792239144982</v>
+        <v>14.34484347528381</v>
       </c>
       <c r="D113" s="4">
-        <v>25.776382469275308</v>
+        <v>9.1659236035522174</v>
       </c>
       <c r="E113" s="4">
-        <v>6.6205533411856274</v>
+        <v>21.012995156440351</v>
       </c>
       <c r="F113" s="4">
-        <v>6.0940819397329449</v>
+        <v>28.842517272698409</v>
       </c>
       <c r="G113">
-        <v>549.23534848275972</v>
+        <v>118.80895418429159</v>
       </c>
       <c r="H113">
         <v>0.25</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K113" s="4">
         <v>1</v>
@@ -4786,22 +4786,22 @@
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>236.7350385596433</v>
+        <v>113.6964236619108</v>
       </c>
       <c r="C114" s="4">
-        <v>81.698951208167983</v>
+        <v>24.643859273686179</v>
       </c>
       <c r="D114" s="4">
-        <v>45.975446318978527</v>
+        <v>20.594462791027901</v>
       </c>
       <c r="E114" s="4">
-        <v>167.58953641520321</v>
+        <v>24.227579460357578</v>
       </c>
       <c r="F114" s="4">
-        <v>384.02794292365371</v>
+        <v>29.265903511103769</v>
       </c>
       <c r="G114">
-        <v>916.02691542564685</v>
+        <v>212.4282286980862</v>
       </c>
       <c r="H114">
         <v>0.25</v>
@@ -4810,13 +4810,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K114" s="4">
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4824,22 +4824,22 @@
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>557.41269215659031</v>
+        <v>805.66479751665986</v>
       </c>
       <c r="C115" s="4">
-        <v>198.30922233639879</v>
+        <v>157.60267651152191</v>
       </c>
       <c r="D115" s="4">
-        <v>60.844681875646259</v>
+        <v>53.469507730623327</v>
       </c>
       <c r="E115" s="4">
-        <v>38.75050502800007</v>
+        <v>27.54029989464496</v>
       </c>
       <c r="F115" s="4">
-        <v>31.896790685731482</v>
+        <v>31.35446918224666</v>
       </c>
       <c r="G115">
-        <v>887.2138920823669</v>
+        <v>1075.631750835696</v>
       </c>
       <c r="H115">
         <v>0.25</v>
@@ -4848,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K115" s="4">
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -4862,22 +4862,22 @@
         <v>11</v>
       </c>
       <c r="B116" s="4">
-        <v>278.80795795366163</v>
+        <v>557.41269215659031</v>
       </c>
       <c r="C116" s="4">
-        <v>101.5179620698888</v>
+        <v>198.30922233639879</v>
       </c>
       <c r="D116" s="4">
-        <v>76.639008621522066</v>
+        <v>60.844681875646259</v>
       </c>
       <c r="E116" s="4">
-        <v>108.6722970327006</v>
+        <v>38.75050502800007</v>
       </c>
       <c r="F116" s="4">
-        <v>125.5000792720636</v>
+        <v>31.896790685731482</v>
       </c>
       <c r="G116">
-        <v>691.13730494983668</v>
+        <v>887.2138920823669</v>
       </c>
       <c r="H116">
         <v>0.25</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K116" s="4">
         <v>1</v>
@@ -4899,23 +4899,23 @@
       <c r="A117" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="4">
-        <v>933.14114350400769</v>
-      </c>
-      <c r="C117" s="4">
-        <v>807.67523351762395</v>
-      </c>
-      <c r="D117" s="4">
-        <v>651.91701781419442</v>
-      </c>
-      <c r="E117" s="4">
-        <v>556.80271981442786</v>
-      </c>
-      <c r="F117" s="4">
-        <v>300.46490892347322</v>
+      <c r="B117" s="3">
+        <v>65.46043449099048</v>
+      </c>
+      <c r="C117" s="3">
+        <v>20.734158398029411</v>
+      </c>
+      <c r="D117" s="3">
+        <v>13.49303666475314</v>
+      </c>
+      <c r="E117" s="3">
+        <v>18.572927090301199</v>
+      </c>
+      <c r="F117" s="3">
+        <v>35.222399060961813</v>
       </c>
       <c r="G117">
-        <v>3250.0010235737268</v>
+        <v>153.48295570503601</v>
       </c>
       <c r="H117">
         <v>0.25</v>
@@ -4924,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>9</v>
-      </c>
-      <c r="K117" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
       </c>
       <c r="L117" t="s">
         <v>13</v>
@@ -4937,23 +4937,23 @@
       <c r="A118" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="4">
-        <v>8825.9429990320314</v>
-      </c>
-      <c r="C118" s="4">
-        <v>2827.343715537349</v>
-      </c>
-      <c r="D118" s="4">
-        <v>1199.353298096582</v>
-      </c>
-      <c r="E118" s="4">
-        <v>1883.911401479462</v>
-      </c>
-      <c r="F118" s="4">
-        <v>903.77317749673296</v>
+      <c r="B118" s="3">
+        <v>42.03770249531825</v>
+      </c>
+      <c r="C118" s="3">
+        <v>100.7005666510161</v>
+      </c>
+      <c r="D118" s="3">
+        <v>17.894691803479891</v>
+      </c>
+      <c r="E118" s="3">
+        <v>16.793008883399111</v>
+      </c>
+      <c r="F118" s="3">
+        <v>35.815288929550441</v>
       </c>
       <c r="G118">
-        <v>15640.32459164216</v>
+        <v>213.24125876276381</v>
       </c>
       <c r="H118">
         <v>0.25</v>
@@ -4962,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>20</v>
-      </c>
-      <c r="K118" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -4976,22 +4976,22 @@
         <v>11</v>
       </c>
       <c r="B119" s="4">
-        <v>315.3240559249399</v>
+        <v>9831.6995947508731</v>
       </c>
       <c r="C119" s="4">
-        <v>42.937672070747851</v>
+        <v>992.84855747060749</v>
       </c>
       <c r="D119" s="4">
-        <v>5.2114895281694684</v>
+        <v>70.477003385920085</v>
       </c>
       <c r="E119" s="4">
-        <v>2.9251627106582672</v>
+        <v>20.136781666917859</v>
       </c>
       <c r="F119" s="4">
-        <v>2.3006472398661528</v>
+        <v>37.014797958782196</v>
       </c>
       <c r="G119">
-        <v>368.69902747438152</v>
+        <v>10952.176735233101</v>
       </c>
       <c r="H119">
         <v>0.25</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K119" s="4">
         <v>1</v>
@@ -5013,23 +5013,23 @@
       <c r="A120" t="s">
         <v>11</v>
       </c>
-      <c r="B120" s="4">
-        <v>76.590501003727113</v>
-      </c>
-      <c r="C120" s="4">
-        <v>14.805590768794371</v>
-      </c>
-      <c r="D120" s="4">
-        <v>4.8639357310845828</v>
-      </c>
-      <c r="E120" s="4">
-        <v>2.945717542927258</v>
-      </c>
-      <c r="F120" s="4">
-        <v>2.6916643144493602</v>
+      <c r="B120" s="3">
+        <v>20.343298016657979</v>
+      </c>
+      <c r="C120" s="3">
+        <v>92.321174849650873</v>
+      </c>
+      <c r="D120" s="3">
+        <v>10.932923301311449</v>
+      </c>
+      <c r="E120" s="3">
+        <v>17.86516688425387</v>
+      </c>
+      <c r="F120" s="3">
+        <v>52.138818393339371</v>
       </c>
       <c r="G120">
-        <v>101.89740936098271</v>
+        <v>193.6013814452136</v>
       </c>
       <c r="H120">
         <v>0.25</v>
@@ -5038,10 +5038,10 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>14</v>
-      </c>
-      <c r="K120" s="4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0</v>
       </c>
       <c r="L120" t="s">
         <v>14</v>
@@ -5052,22 +5052,22 @@
         <v>11</v>
       </c>
       <c r="B121" s="4">
-        <v>132.69879042232861</v>
+        <v>150.45949121348059</v>
       </c>
       <c r="C121" s="4">
-        <v>13.725287902690591</v>
+        <v>41.7201782627453</v>
       </c>
       <c r="D121" s="4">
-        <v>3.8895867629498579</v>
+        <v>16.687240023196679</v>
       </c>
       <c r="E121" s="4">
-        <v>3.2418838752109429</v>
+        <v>36.896249416253923</v>
       </c>
       <c r="F121" s="4">
-        <v>3.950758365545135</v>
+        <v>53.774373265095058</v>
       </c>
       <c r="G121">
-        <v>157.5063073287252</v>
+        <v>299.53753218077162</v>
       </c>
       <c r="H121">
         <v>0.25</v>
@@ -5076,36 +5076,36 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K121" s="4">
         <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
-      <c r="B122" s="4">
-        <v>69.782500364035386</v>
-      </c>
-      <c r="C122" s="4">
-        <v>34.367511524734297</v>
-      </c>
-      <c r="D122" s="4">
-        <v>3.4807686910452111</v>
-      </c>
-      <c r="E122" s="4">
-        <v>3.981053323340868</v>
-      </c>
-      <c r="F122" s="4">
-        <v>4.6992684097579174</v>
+      <c r="B122" s="3">
+        <v>43.02296045162317</v>
+      </c>
+      <c r="C122" s="3">
+        <v>76.829130251092352</v>
+      </c>
+      <c r="D122" s="3">
+        <v>18.19797072629607</v>
+      </c>
+      <c r="E122" s="3">
+        <v>25.228464870137319</v>
+      </c>
+      <c r="F122" s="3">
+        <v>59.26819212253676</v>
       </c>
       <c r="G122">
-        <v>116.3111023129137</v>
+        <v>222.54671842168571</v>
       </c>
       <c r="H122">
         <v>0.25</v>
@@ -5114,36 +5114,36 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>28</v>
-      </c>
-      <c r="K122" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K122" s="3">
+        <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="4">
-        <v>407.3207073862323</v>
-      </c>
-      <c r="C123" s="4">
-        <v>106.1640686322181</v>
-      </c>
-      <c r="D123" s="4">
-        <v>10.81116850528789</v>
-      </c>
-      <c r="E123" s="4">
-        <v>4.1882162476233624</v>
-      </c>
-      <c r="F123" s="4">
-        <v>4.7452092700618564</v>
+      <c r="B123" s="3">
+        <v>76.319446156433543</v>
+      </c>
+      <c r="C123" s="3">
+        <v>5.4496794112410107</v>
+      </c>
+      <c r="D123" s="3">
+        <v>5.1788621492263083</v>
+      </c>
+      <c r="E123" s="3">
+        <v>23.198340281153261</v>
+      </c>
+      <c r="F123" s="3">
+        <v>64.655072692033215</v>
       </c>
       <c r="G123">
-        <v>533.22937004142364</v>
+        <v>174.80140069008729</v>
       </c>
       <c r="H123">
         <v>0.25</v>
@@ -5152,36 +5152,36 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>8</v>
-      </c>
-      <c r="K123" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K123" s="3">
+        <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="4">
-        <v>175.724132283806</v>
-      </c>
-      <c r="C124" s="4">
-        <v>54.06656535872861</v>
-      </c>
-      <c r="D124" s="4">
-        <v>8.3416617152365085</v>
-      </c>
-      <c r="E124" s="4">
-        <v>6.4208251678317367</v>
-      </c>
-      <c r="F124" s="4">
-        <v>5.6888551258791882</v>
+      <c r="B124" s="3">
+        <v>103.754098997852</v>
+      </c>
+      <c r="C124" s="3">
+        <v>29.228614166831541</v>
+      </c>
+      <c r="D124" s="3">
+        <v>44.311921887810662</v>
+      </c>
+      <c r="E124" s="3">
+        <v>39.211174577679451</v>
+      </c>
+      <c r="F124" s="3">
+        <v>67.748908174281468</v>
       </c>
       <c r="G124">
-        <v>250.242039651482</v>
+        <v>284.25471780445508</v>
       </c>
       <c r="H124">
         <v>0.25</v>
@@ -5190,13 +5190,13 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>16</v>
-      </c>
-      <c r="K124" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5204,22 +5204,22 @@
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>348.80930506818783</v>
+        <v>100.46849488490589</v>
       </c>
       <c r="C125" s="4">
-        <v>139.19695523156301</v>
+        <v>42.245063065341988</v>
       </c>
       <c r="D125" s="4">
-        <v>25.18532890894457</v>
+        <v>34.384074146254463</v>
       </c>
       <c r="E125" s="4">
-        <v>6.6596311897041218</v>
+        <v>56.563383046009221</v>
       </c>
       <c r="F125" s="4">
-        <v>6.117400537973432</v>
+        <v>68.144018649266542</v>
       </c>
       <c r="G125">
-        <v>525.96862093637287</v>
+        <v>301.80503379177821</v>
       </c>
       <c r="H125">
         <v>0.25</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K125" s="4">
         <v>1</v>
@@ -5242,22 +5242,22 @@
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>29.37944880111457</v>
+        <v>386.00604235031312</v>
       </c>
       <c r="C126" s="4">
-        <v>9.7780742876675397</v>
+        <v>120.355341676368</v>
       </c>
       <c r="D126" s="4">
-        <v>5.3717826737269778</v>
+        <v>28.020085493398319</v>
       </c>
       <c r="E126" s="4">
-        <v>6.6708893390648569</v>
+        <v>45.498702243123809</v>
       </c>
       <c r="F126" s="4">
-        <v>9.1901119562367271</v>
+        <v>73.771505786009016</v>
       </c>
       <c r="G126">
-        <v>60.390307057810681</v>
+        <v>653.6516775492122</v>
       </c>
       <c r="H126">
         <v>0.25</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K126" s="4">
         <v>1</v>
@@ -5279,23 +5279,23 @@
       <c r="A127" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="4">
-        <v>144.85666601340279</v>
-      </c>
-      <c r="C127" s="4">
-        <v>39.683677209039978</v>
-      </c>
-      <c r="D127" s="4">
-        <v>17.464195707213641</v>
-      </c>
-      <c r="E127" s="4">
-        <v>15.417820806864979</v>
-      </c>
-      <c r="F127" s="4">
-        <v>9.464870020677191</v>
+      <c r="B127" s="3">
+        <v>1673.2955500138751</v>
+      </c>
+      <c r="C127" s="3">
+        <v>158.4727096999182</v>
+      </c>
+      <c r="D127" s="3">
+        <v>210.7250693911748</v>
+      </c>
+      <c r="E127" s="3">
+        <v>107.1680604997597</v>
+      </c>
+      <c r="F127" s="3">
+        <v>78.294785196541582</v>
       </c>
       <c r="G127">
-        <v>226.88722975719861</v>
+        <v>2227.9561748012688</v>
       </c>
       <c r="H127">
         <v>0.25</v>
@@ -5304,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>18</v>
-      </c>
-      <c r="K127" s="4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K127" s="3">
+        <v>0</v>
       </c>
       <c r="L127" t="s">
         <v>14</v>
@@ -5318,22 +5318,22 @@
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>723.68132135803671</v>
+        <v>11.46470411338003</v>
       </c>
       <c r="C128" s="4">
-        <v>133.83411637174831</v>
+        <v>16.49362254752705</v>
       </c>
       <c r="D128" s="4">
-        <v>12.89155959926366</v>
+        <v>13.50853013787725</v>
       </c>
       <c r="E128" s="4">
-        <v>10.78545995805105</v>
+        <v>43.560177282073823</v>
       </c>
       <c r="F128" s="4">
-        <v>9.4752244419060219</v>
+        <v>80.084188383821271</v>
       </c>
       <c r="G128">
-        <v>890.66768172900584</v>
+        <v>165.1112224646794</v>
       </c>
       <c r="H128">
         <v>0.25</v>
@@ -5342,13 +5342,13 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="K128" s="4">
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5356,22 +5356,22 @@
         <v>11</v>
       </c>
       <c r="B129" s="4">
-        <v>1823.859777115289</v>
+        <v>831.61413865462828</v>
       </c>
       <c r="C129" s="4">
-        <v>309.0612166280215</v>
+        <v>259.33890359284231</v>
       </c>
       <c r="D129" s="4">
-        <v>68.973555644417473</v>
+        <v>167.44493283835101</v>
       </c>
       <c r="E129" s="4">
-        <v>27.18730070896499</v>
+        <v>94.383225491211945</v>
       </c>
       <c r="F129" s="4">
-        <v>11.52651357751764</v>
+        <v>91.621104693331191</v>
       </c>
       <c r="G129">
-        <v>2240.6083636742101</v>
+        <v>1444.402305270364</v>
       </c>
       <c r="H129">
         <v>0.25</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K129" s="4">
         <v>1</v>
@@ -5394,22 +5394,22 @@
         <v>11</v>
       </c>
       <c r="B130" s="4">
-        <v>100.18501442996219</v>
+        <v>23.133560794585701</v>
       </c>
       <c r="C130" s="4">
-        <v>21.91386177866309</v>
+        <v>17.24101021009276</v>
       </c>
       <c r="D130" s="4">
-        <v>24.55708491987734</v>
+        <v>59.575924815620368</v>
       </c>
       <c r="E130" s="4">
-        <v>16.761505289702988</v>
+        <v>54.121097010836031</v>
       </c>
       <c r="F130" s="4">
-        <v>16.212992576162051</v>
+        <v>93.592109599676363</v>
       </c>
       <c r="G130">
-        <v>179.63045899436759</v>
+        <v>247.66370243081121</v>
       </c>
       <c r="H130">
         <v>0.25</v>
@@ -5418,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K130" s="4">
         <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -5432,22 +5432,22 @@
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>181.30434253126819</v>
+        <v>64.695737509823459</v>
       </c>
       <c r="C131" s="4">
-        <v>42.876853177581147</v>
+        <v>61.147775475685613</v>
       </c>
       <c r="D131" s="4">
-        <v>12.625095049215449</v>
+        <v>72.777557376216834</v>
       </c>
       <c r="E131" s="4">
-        <v>15.593425675869961</v>
+        <v>94.122507522784133</v>
       </c>
       <c r="F131" s="4">
-        <v>18.433495190328308</v>
+        <v>102.0152852935597</v>
       </c>
       <c r="G131">
-        <v>270.83321162426307</v>
+        <v>394.75886317806959</v>
       </c>
       <c r="H131">
         <v>0.25</v>
@@ -5456,13 +5456,13 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K131" s="4">
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5470,22 +5470,22 @@
         <v>11</v>
       </c>
       <c r="B132" s="4">
-        <v>54.812605752362742</v>
+        <v>278.80795795366163</v>
       </c>
       <c r="C132" s="4">
-        <v>15.25256908915734</v>
+        <v>101.5179620698888</v>
       </c>
       <c r="D132" s="4">
-        <v>6.5564807692158542</v>
+        <v>76.639008621522066</v>
       </c>
       <c r="E132" s="4">
-        <v>13.079958998998061</v>
+        <v>108.6722970327006</v>
       </c>
       <c r="F132" s="4">
-        <v>21.19556170308109</v>
+        <v>125.5000792720636</v>
       </c>
       <c r="G132">
-        <v>110.89717631281511</v>
+        <v>691.13730494983668</v>
       </c>
       <c r="H132">
         <v>0.25</v>
@@ -5494,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K132" s="4">
         <v>1</v>
       </c>
       <c r="L132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5508,22 +5508,22 @@
         <v>11</v>
       </c>
       <c r="B133" s="4">
-        <v>971.05800576877959</v>
+        <v>1497.272135568157</v>
       </c>
       <c r="C133" s="4">
-        <v>159.28447870794031</v>
+        <v>370.76669688405377</v>
       </c>
       <c r="D133" s="4">
-        <v>23.172279016337551</v>
+        <v>162.21057399402281</v>
       </c>
       <c r="E133" s="4">
-        <v>18.88557912570041</v>
+        <v>130.27821977947761</v>
       </c>
       <c r="F133" s="4">
-        <v>26.87972925036604</v>
+        <v>127.5798158952047</v>
       </c>
       <c r="G133">
-        <v>1199.280071869124</v>
+        <v>2288.107442120915</v>
       </c>
       <c r="H133">
         <v>0.25</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K133" s="4">
         <v>1</v>
@@ -5546,22 +5546,22 @@
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>113.6964236619108</v>
+        <v>414.21787506223689</v>
       </c>
       <c r="C134" s="4">
-        <v>24.643859273686179</v>
+        <v>247.47391774320761</v>
       </c>
       <c r="D134" s="4">
-        <v>20.594462791027901</v>
+        <v>242.210043124881</v>
       </c>
       <c r="E134" s="4">
-        <v>24.227579460357578</v>
+        <v>130.51865564184831</v>
       </c>
       <c r="F134" s="4">
-        <v>29.265903511103769</v>
+        <v>147.9080203175366</v>
       </c>
       <c r="G134">
-        <v>212.4282286980862</v>
+        <v>1182.3285118897099</v>
       </c>
       <c r="H134">
         <v>0.25</v>
@@ -5570,36 +5570,36 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K134" s="4">
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="4">
-        <v>805.66479751665986</v>
-      </c>
-      <c r="C135" s="4">
-        <v>157.60267651152191</v>
-      </c>
-      <c r="D135" s="4">
-        <v>53.469507730623327</v>
-      </c>
-      <c r="E135" s="4">
-        <v>27.54029989464496</v>
-      </c>
-      <c r="F135" s="4">
-        <v>31.35446918224666</v>
+      <c r="B135" s="3">
+        <v>2284.1039794570829</v>
+      </c>
+      <c r="C135" s="3">
+        <v>172.55324871853611</v>
+      </c>
+      <c r="D135" s="3">
+        <v>67.380508907237584</v>
+      </c>
+      <c r="E135" s="3">
+        <v>97.786413017463374</v>
+      </c>
+      <c r="F135" s="3">
+        <v>268.86977249356198</v>
       </c>
       <c r="G135">
-        <v>1075.631750835696</v>
+        <v>2890.6939225938818</v>
       </c>
       <c r="H135">
         <v>0.25</v>
@@ -5608,13 +5608,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>19</v>
-      </c>
-      <c r="K135" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K135" s="3">
+        <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5622,22 +5622,22 @@
         <v>11</v>
       </c>
       <c r="B136" s="4">
-        <v>9831.6995947508731</v>
+        <v>1766.004835228975</v>
       </c>
       <c r="C136" s="4">
-        <v>992.84855747060749</v>
+        <v>664.49098923540896</v>
       </c>
       <c r="D136" s="4">
-        <v>70.477003385920085</v>
+        <v>372.15247224642178</v>
       </c>
       <c r="E136" s="4">
-        <v>20.136781666917859</v>
+        <v>282.25850004034191</v>
       </c>
       <c r="F136" s="4">
-        <v>37.014797958782196</v>
+        <v>285.86714121338912</v>
       </c>
       <c r="G136">
-        <v>10952.176735233101</v>
+        <v>3370.7739379645382</v>
       </c>
       <c r="H136">
         <v>0.25</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K136" s="4">
         <v>1</v>
@@ -5659,23 +5659,23 @@
       <c r="A137" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="4">
-        <v>100.46849488490589</v>
-      </c>
-      <c r="C137" s="4">
-        <v>42.245063065341988</v>
-      </c>
-      <c r="D137" s="4">
-        <v>34.384074146254463</v>
-      </c>
-      <c r="E137" s="4">
-        <v>56.563383046009221</v>
-      </c>
-      <c r="F137" s="4">
-        <v>68.144018649266542</v>
+      <c r="B137" s="3">
+        <v>5577.5826234258602</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1211.8704362071101</v>
+      </c>
+      <c r="D137" s="3">
+        <v>533.52389198128208</v>
+      </c>
+      <c r="E137" s="3">
+        <v>484.95053807455372</v>
+      </c>
+      <c r="F137" s="3">
+        <v>291.70501162239952</v>
       </c>
       <c r="G137">
-        <v>301.80503379177821</v>
+        <v>8099.6325013112046</v>
       </c>
       <c r="H137">
         <v>0.25</v>
@@ -5684,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1</v>
-      </c>
-      <c r="K137" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0</v>
       </c>
       <c r="L137" t="s">
         <v>14</v>
@@ -5698,22 +5698,22 @@
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>386.00604235031312</v>
+        <v>933.14114350400769</v>
       </c>
       <c r="C138" s="4">
-        <v>120.355341676368</v>
+        <v>807.67523351762395</v>
       </c>
       <c r="D138" s="4">
-        <v>28.020085493398319</v>
+        <v>651.91701781419442</v>
       </c>
       <c r="E138" s="4">
-        <v>45.498702243123809</v>
+        <v>556.80271981442786</v>
       </c>
       <c r="F138" s="4">
-        <v>73.771505786009016</v>
+        <v>300.46490892347322</v>
       </c>
       <c r="G138">
-        <v>653.6516775492122</v>
+        <v>3250.0010235737268</v>
       </c>
       <c r="H138">
         <v>0.25</v>
@@ -5722,13 +5722,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K138" s="4">
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -5736,22 +5736,22 @@
         <v>11</v>
       </c>
       <c r="B139" s="4">
-        <v>831.61413865462828</v>
+        <v>236.7350385596433</v>
       </c>
       <c r="C139" s="4">
-        <v>259.33890359284231</v>
+        <v>81.698951208167983</v>
       </c>
       <c r="D139" s="4">
-        <v>167.44493283835101</v>
+        <v>45.975446318978527</v>
       </c>
       <c r="E139" s="4">
-        <v>94.383225491211945</v>
+        <v>167.58953641520321</v>
       </c>
       <c r="F139" s="4">
-        <v>91.621104693331191</v>
+        <v>384.02794292365371</v>
       </c>
       <c r="G139">
-        <v>1444.402305270364</v>
+        <v>916.02691542564685</v>
       </c>
       <c r="H139">
         <v>0.25</v>
@@ -5760,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K139" s="4">
         <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5774,22 +5774,22 @@
         <v>11</v>
       </c>
       <c r="B140" s="4">
-        <v>1497.272135568157</v>
+        <v>989.17643651145841</v>
       </c>
       <c r="C140" s="4">
-        <v>370.76669688405377</v>
+        <v>549.4055777820696</v>
       </c>
       <c r="D140" s="4">
-        <v>162.21057399402281</v>
+        <v>309.4069838838243</v>
       </c>
       <c r="E140" s="4">
-        <v>130.27821977947761</v>
+        <v>503.02843750003677</v>
       </c>
       <c r="F140" s="4">
-        <v>127.5798158952047</v>
+        <v>412.40006708972112</v>
       </c>
       <c r="G140">
-        <v>2288.107442120915</v>
+        <v>2763.417502767109</v>
       </c>
       <c r="H140">
         <v>0.25</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K140" s="4">
         <v>1</v>
@@ -5812,22 +5812,22 @@
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>1766.004835228975</v>
+        <v>532.48063107749351</v>
       </c>
       <c r="C141" s="4">
-        <v>664.49098923540896</v>
+        <v>881.25161046858796</v>
       </c>
       <c r="D141" s="4">
-        <v>372.15247224642178</v>
+        <v>913.52335174480822</v>
       </c>
       <c r="E141" s="4">
-        <v>282.25850004034191</v>
+        <v>1010.449607160935</v>
       </c>
       <c r="F141" s="4">
-        <v>285.86714121338912</v>
+        <v>531.44555290162862</v>
       </c>
       <c r="G141">
-        <v>3370.7739379645382</v>
+        <v>3869.1507533534532</v>
       </c>
       <c r="H141">
         <v>0.25</v>
@@ -5836,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K141" s="4">
         <v>1</v>
       </c>
       <c r="L141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -5850,22 +5850,22 @@
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>989.17643651145841</v>
+        <v>2503.591795077929</v>
       </c>
       <c r="C142" s="4">
-        <v>549.4055777820696</v>
+        <v>304.31858066841522</v>
       </c>
       <c r="D142" s="4">
-        <v>309.4069838838243</v>
+        <v>135.06562701320209</v>
       </c>
       <c r="E142" s="4">
-        <v>503.02843750003677</v>
+        <v>124.5277569347368</v>
       </c>
       <c r="F142" s="4">
-        <v>412.40006708972112</v>
+        <v>851.50035915974104</v>
       </c>
       <c r="G142">
-        <v>2763.417502767109</v>
+        <v>3919.004118854024</v>
       </c>
       <c r="H142">
         <v>0.25</v>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K142" s="4">
         <v>1</v>
@@ -5888,22 +5888,22 @@
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>2503.591795077929</v>
+        <v>8825.9429990320314</v>
       </c>
       <c r="C143" s="4">
-        <v>304.31858066841522</v>
+        <v>2827.343715537349</v>
       </c>
       <c r="D143" s="4">
-        <v>135.06562701320209</v>
+        <v>1199.353298096582</v>
       </c>
       <c r="E143" s="4">
-        <v>124.5277569347368</v>
+        <v>1883.911401479462</v>
       </c>
       <c r="F143" s="4">
-        <v>851.50035915974104</v>
+        <v>903.77317749673296</v>
       </c>
       <c r="G143">
-        <v>3919.004118854024</v>
+        <v>15640.32459164216</v>
       </c>
       <c r="H143">
         <v>0.25</v>
@@ -5912,13 +5912,13 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K143" s="4">
         <v>1</v>
       </c>
       <c r="L143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -5998,6 +5998,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L147">
+    <sortCondition ref="F2:F147"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>